--- a/Daily/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2501 +411,2701 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="B2">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C2">
-        <v>-0.07882785746192522</v>
+        <v>-0.0147656330385276</v>
       </c>
       <c r="D2">
-        <v>-4.368412384219863</v>
+        <v>-4.301067898421305</v>
       </c>
       <c r="E2">
-        <v>4.210756669296013</v>
+        <v>4.271536632344249</v>
       </c>
       <c r="F2">
-        <v>-1.434589497026728</v>
+        <v>3.788670871940347</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="B3">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="C3">
-        <v>0.07154947042620258</v>
+        <v>-0.1448397983493485</v>
       </c>
       <c r="D3">
-        <v>-4.217523337374781</v>
+        <v>-4.432827451707528</v>
       </c>
       <c r="E3">
-        <v>4.360622278227187</v>
+        <v>4.143147855008831</v>
       </c>
       <c r="F3">
-        <v>0.9226659757088029</v>
+        <v>1.712420309043061</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="B4">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="C4">
-        <v>-0.05007366095479257</v>
+        <v>-0.03717079871838547</v>
       </c>
       <c r="D4">
-        <v>-4.338442228423963</v>
+        <v>-4.32492525981304</v>
       </c>
       <c r="E4">
-        <v>4.238294906514378</v>
+        <v>4.250583662376269</v>
       </c>
       <c r="F4">
-        <v>0.5119235213179252</v>
+        <v>-2.152497299169553</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B5">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="C5">
-        <v>-0.01068017574972406</v>
+        <v>0.09068589001661104</v>
       </c>
       <c r="D5">
-        <v>-4.298274248741298</v>
+        <v>-4.197014243664599</v>
       </c>
       <c r="E5">
-        <v>4.27691389724185</v>
+        <v>4.378386023697821</v>
       </c>
       <c r="F5">
-        <v>-0.8365991312048848</v>
+        <v>-0.8266949945545221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="B6">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="C6">
-        <v>0.03505341068679599</v>
+        <v>0.01416564600208636</v>
       </c>
       <c r="D6">
-        <v>-4.251830068623438</v>
+        <v>-4.272848763293206</v>
       </c>
       <c r="E6">
-        <v>4.321936889997031</v>
+        <v>4.30118005529738</v>
       </c>
       <c r="F6">
-        <v>-2.413721129867241</v>
+        <v>4.492858206503136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="B7">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="C7">
-        <v>0.08813498545005022</v>
+        <v>-0.1764810277395721</v>
       </c>
       <c r="D7">
-        <v>-4.198958359648293</v>
+        <v>-4.46614892847532</v>
       </c>
       <c r="E7">
-        <v>4.375228330548394</v>
+        <v>4.113186872996176</v>
       </c>
       <c r="F7">
-        <v>-0.6405814969875578</v>
+        <v>-1.398624197473985</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="B8">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="C8">
-        <v>0.008366278707843539</v>
+        <v>0.08835043952645699</v>
       </c>
       <c r="D8">
-        <v>-4.277990913750599</v>
+        <v>-4.200744582815187</v>
       </c>
       <c r="E8">
-        <v>4.294723471166285</v>
+        <v>4.377445461868102</v>
       </c>
       <c r="F8">
-        <v>-0.1118255637917898</v>
+        <v>2.861790424280386</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="B9">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="C9">
-        <v>0.002785139272854335</v>
+        <v>-0.130786580703723</v>
       </c>
       <c r="D9">
-        <v>-4.282746985468965</v>
+        <v>-4.420384309365673</v>
       </c>
       <c r="E9">
-        <v>4.288317264014673</v>
+        <v>4.158811147958227</v>
       </c>
       <c r="F9">
-        <v>1.609357709309478</v>
+        <v>3.134708136443898</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="B10">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="C10">
-        <v>-0.06358173239707426</v>
+        <v>-0.09732842917200657</v>
       </c>
       <c r="D10">
-        <v>-4.348733315743322</v>
+        <v>-4.387943499857529</v>
       </c>
       <c r="E10">
-        <v>4.221569850949173</v>
+        <v>4.193286641513516</v>
       </c>
       <c r="F10">
-        <v>-0.4966897628337463</v>
+        <v>-1.006674260980489</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="B11">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="C11">
-        <v>0.03160551430947847</v>
+        <v>0.05758053705132984</v>
       </c>
       <c r="D11">
-        <v>-4.252751824860016</v>
+        <v>-4.232346905181885</v>
       </c>
       <c r="E11">
-        <v>4.315962853478973</v>
+        <v>4.347507979284545</v>
       </c>
       <c r="F11">
-        <v>1.564461714751708</v>
+        <v>1.734931019724151</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="B12">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="C12">
-        <v>-0.06749209980729759</v>
+        <v>-0.07882785746192522</v>
       </c>
       <c r="D12">
-        <v>-4.351429452272552</v>
+        <v>-4.368412384219863</v>
       </c>
       <c r="E12">
-        <v>4.216445252657958</v>
+        <v>4.210756669296013</v>
       </c>
       <c r="F12">
-        <v>0.4618945856293522</v>
+        <v>-1.434589497026728</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="B13">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="C13">
-        <v>-0.005197345166944825</v>
+        <v>0.07154947042620258</v>
       </c>
       <c r="D13">
-        <v>-4.288357337884404</v>
+        <v>-4.217523337374781</v>
       </c>
       <c r="E13">
-        <v>4.277962647550515</v>
+        <v>4.360622278227187</v>
       </c>
       <c r="F13">
-        <v>-0.7072934817861309</v>
+        <v>0.9226659757088029</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="B14">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="C14">
-        <v>0.02873144061992008</v>
+        <v>-0.05007366095479257</v>
       </c>
       <c r="D14">
-        <v>-4.253688423992687</v>
+        <v>-4.338442228423963</v>
       </c>
       <c r="E14">
-        <v>4.311151305232526</v>
+        <v>4.238294906514378</v>
       </c>
       <c r="F14">
-        <v>-2.571688800512995</v>
+        <v>0.5119235213179252</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="B15">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="C15">
-        <v>0.09493617540930271</v>
+        <v>-0.01068017574972406</v>
       </c>
       <c r="D15">
-        <v>-4.187827169204349</v>
+        <v>-4.298274248741298</v>
       </c>
       <c r="E15">
-        <v>4.377699520022954</v>
+        <v>4.27691389724185</v>
       </c>
       <c r="F15">
-        <v>-2.467160440768268</v>
+        <v>-0.8365991312048848</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="B16">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C16">
-        <v>0.07699603242693515</v>
+        <v>0.03505341068679599</v>
       </c>
       <c r="D16">
-        <v>-4.206075855371631</v>
+        <v>-4.251830068623438</v>
       </c>
       <c r="E16">
-        <v>4.360067920225501</v>
+        <v>4.321936889997031</v>
       </c>
       <c r="F16">
-        <v>-0.7782140442055052</v>
+        <v>-2.413721129867241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="B17">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="C17">
-        <v>0.01496778016758948</v>
+        <v>0.08813498545005022</v>
       </c>
       <c r="D17">
-        <v>-4.267405911992005</v>
+        <v>-4.198958359648293</v>
       </c>
       <c r="E17">
-        <v>4.297341472327184</v>
+        <v>4.375228330548394</v>
       </c>
       <c r="F17">
-        <v>0.2600781700056842</v>
+        <v>-0.6405814969875578</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="B18">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="C18">
-        <v>-0.01290829107892055</v>
+        <v>0.008366278707843539</v>
       </c>
       <c r="D18">
-        <v>-4.294468430554096</v>
+        <v>-4.277990913750599</v>
       </c>
       <c r="E18">
-        <v>4.268651848396255</v>
+        <v>4.294723471166285</v>
       </c>
       <c r="F18">
-        <v>-0.05773672215809711</v>
+        <v>-0.1118255637917898</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="B19">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="C19">
-        <v>0.004730567359824236</v>
+        <v>0.002785139272854335</v>
       </c>
       <c r="D19">
-        <v>-4.276006462559732</v>
+        <v>-4.282746985468965</v>
       </c>
       <c r="E19">
-        <v>4.285467597279381</v>
+        <v>4.288317264014673</v>
       </c>
       <c r="F19">
-        <v>0.6619681677543454</v>
+        <v>1.609357709309478</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="B20">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="C20">
-        <v>-0.02635703166524328</v>
+        <v>-0.06358173239707426</v>
       </c>
       <c r="D20">
-        <v>-4.306345607110757</v>
+        <v>-4.348733315743322</v>
       </c>
       <c r="E20">
-        <v>4.253631543780269</v>
+        <v>4.221569850949173</v>
       </c>
       <c r="F20">
-        <v>1.678321288626172</v>
+        <v>-0.4966897628337463</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="B21">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="C21">
-        <v>-0.05921898301041661</v>
+        <v>0.03160551430947847</v>
       </c>
       <c r="D21">
-        <v>-4.338886311476867</v>
+        <v>-4.252751824860016</v>
       </c>
       <c r="E21">
-        <v>4.220448345456034</v>
+        <v>4.315962853478973</v>
       </c>
       <c r="F21">
-        <v>-2.109542310444112</v>
+        <v>1.564461714751708</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="B22">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="C22">
-        <v>0.09293764038713737</v>
+        <v>-0.06749209980729759</v>
       </c>
       <c r="D22">
-        <v>-4.186632313280909</v>
+        <v>-4.351429452272552</v>
       </c>
       <c r="E22">
-        <v>4.372507594055183</v>
+        <v>4.216445252657958</v>
       </c>
       <c r="F22">
-        <v>-1.304933697772093</v>
+        <v>0.4618945856293522</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="B23">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="C23">
-        <v>0.03225303772242077</v>
+        <v>-0.005197345166944825</v>
       </c>
       <c r="D23">
-        <v>-4.246831880321432</v>
+        <v>-4.288357337884404</v>
       </c>
       <c r="E23">
-        <v>4.311337955766273</v>
+        <v>4.277962647550515</v>
       </c>
       <c r="F23">
-        <v>1.391326791698511</v>
+        <v>-0.7072934817861309</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="B24">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="C24">
-        <v>-0.05979411190395811</v>
+        <v>0.02873144061992008</v>
       </c>
       <c r="D24">
-        <v>-4.338375943133901</v>
+        <v>-4.253688423992687</v>
       </c>
       <c r="E24">
-        <v>4.218787719325984</v>
+        <v>4.311151305232526</v>
       </c>
       <c r="F24">
-        <v>-1.683639189258912</v>
+        <v>-2.571688800512995</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="B25">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="C25">
-        <v>0.07647113965895813</v>
+        <v>0.09493617540930271</v>
       </c>
       <c r="D25">
-        <v>-4.201743957076057</v>
+        <v>-4.187827169204349</v>
       </c>
       <c r="E25">
-        <v>4.354686236393973</v>
+        <v>4.377699520022954</v>
       </c>
       <c r="F25">
-        <v>-0.882099221538013</v>
+        <v>-2.467160440768268</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="B26">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="C26">
-        <v>0.01954850202410471</v>
+        <v>0.07699603242693515</v>
       </c>
       <c r="D26">
-        <v>-4.258004259161618</v>
+        <v>-4.206075855371631</v>
       </c>
       <c r="E26">
-        <v>4.297101263209827</v>
+        <v>4.360067920225501</v>
       </c>
       <c r="F26">
-        <v>2.248598170934102</v>
+        <v>-0.7782140442055052</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="B27">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="C27">
-        <v>-0.09056321312535454</v>
+        <v>0.01496778016758948</v>
       </c>
       <c r="D27">
-        <v>-4.368151356296451</v>
+        <v>-4.267405911992005</v>
       </c>
       <c r="E27">
-        <v>4.187024930045743</v>
+        <v>4.297341472327184</v>
       </c>
       <c r="F27">
-        <v>-1.278715476312087</v>
+        <v>0.2600781700056842</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B28">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="C28">
-        <v>0.06657989504261472</v>
+        <v>-0.01290829107892055</v>
       </c>
       <c r="D28">
-        <v>-4.210431280177964</v>
+        <v>-4.294468430554096</v>
       </c>
       <c r="E28">
-        <v>4.343591070263194</v>
+        <v>4.268651848396255</v>
       </c>
       <c r="F28">
-        <v>0.1461347622331743</v>
+        <v>-0.05773672215809711</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="B29">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="C29">
-        <v>-0.01804890925016561</v>
+        <v>0.004730567359824236</v>
       </c>
       <c r="D29">
-        <v>-4.294241738945526</v>
+        <v>-4.276006462559732</v>
       </c>
       <c r="E29">
-        <v>4.258143920445195</v>
+        <v>4.285467597279381</v>
       </c>
       <c r="F29">
-        <v>1.937876984340292</v>
+        <v>0.6619681677543454</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C30">
-        <v>-0.07194996223052474</v>
+        <v>-0.02635703166524328</v>
       </c>
       <c r="D30">
-        <v>-4.347982078622498</v>
+        <v>-4.306345607110757</v>
       </c>
       <c r="E30">
-        <v>4.204082154161449</v>
+        <v>4.253631543780269</v>
       </c>
       <c r="F30">
-        <v>-0.1146460429385598</v>
+        <v>1.678321288626172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="B31">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="C31">
-        <v>0.01763148222557741</v>
+        <v>-0.05921898301041661</v>
       </c>
       <c r="D31">
-        <v>-4.257582333707646</v>
+        <v>-4.338886311476867</v>
       </c>
       <c r="E31">
-        <v>4.292845298158801</v>
+        <v>4.220448345456034</v>
       </c>
       <c r="F31">
-        <v>1.959454995814447</v>
+        <v>-2.109542310444112</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="B32">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="C32">
-        <v>-0.07945650373065882</v>
+        <v>0.09293764038713737</v>
       </c>
       <c r="D32">
-        <v>-4.354500463105139</v>
+        <v>-4.186632313280909</v>
       </c>
       <c r="E32">
-        <v>4.195587455643822</v>
+        <v>4.372507594055183</v>
       </c>
       <c r="F32">
-        <v>1.035119047972444</v>
+        <v>-1.304933697772093</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="B33">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="C33">
-        <v>-0.02543831906005301</v>
+        <v>0.03225303772242077</v>
       </c>
       <c r="D33">
-        <v>-4.299878005114754</v>
+        <v>-4.246831880321432</v>
       </c>
       <c r="E33">
-        <v>4.249001366994647</v>
+        <v>4.311337955766273</v>
       </c>
       <c r="F33">
-        <v>-3.974408972352705</v>
+        <v>1.391326791698511</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="B34">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C34">
-        <v>0.159477249863255</v>
+        <v>-0.05979411190395811</v>
       </c>
       <c r="D34">
-        <v>-4.116824267135689</v>
+        <v>-4.338375943133901</v>
       </c>
       <c r="E34">
-        <v>4.4357787668622</v>
+        <v>4.218787719325984</v>
       </c>
       <c r="F34">
-        <v>-1.135879403560658</v>
+        <v>-1.683639189258912</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="B35">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="C35">
-        <v>0.01542425939379535</v>
+        <v>0.07647113965895813</v>
       </c>
       <c r="D35">
-        <v>-4.260347654355737</v>
+        <v>-4.201743957076057</v>
       </c>
       <c r="E35">
-        <v>4.291196173143328</v>
+        <v>4.354686236393973</v>
       </c>
       <c r="F35">
-        <v>-0.3227228853479147</v>
+        <v>-0.882099221538013</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B36">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="C36">
-        <v>0.009673267251379701</v>
+        <v>0.01954850202410471</v>
       </c>
       <c r="D36">
-        <v>-4.26530123721709</v>
+        <v>-4.258004259161618</v>
       </c>
       <c r="E36">
-        <v>4.284647771719849</v>
+        <v>4.297101263209827</v>
       </c>
       <c r="F36">
-        <v>-0.707758778661649</v>
+        <v>2.248598170934102</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="B37">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="C37">
-        <v>0.02551114618140149</v>
+        <v>-0.09056321312535454</v>
       </c>
       <c r="D37">
-        <v>-4.248735181623736</v>
+        <v>-4.368151356296451</v>
       </c>
       <c r="E37">
-        <v>4.299757473986539</v>
+        <v>4.187024930045743</v>
       </c>
       <c r="F37">
-        <v>0.4723953278507054</v>
+        <v>-1.278715476312087</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="B38">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="C38">
-        <v>-0.0228048044363053</v>
+        <v>0.06657989504261472</v>
       </c>
       <c r="D38">
-        <v>-4.296269321042847</v>
+        <v>-4.210431280177964</v>
       </c>
       <c r="E38">
-        <v>4.250659712170237</v>
+        <v>4.343591070263194</v>
       </c>
       <c r="F38">
-        <v>-0.2063984220852078</v>
+        <v>0.1461347622331743</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="B39">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="C39">
-        <v>0.01206822134238757</v>
+        <v>-0.01804890925016561</v>
       </c>
       <c r="D39">
-        <v>-4.260586451117883</v>
+        <v>-4.294241738945526</v>
       </c>
       <c r="E39">
-        <v>4.284722893802657</v>
+        <v>4.258143920445195</v>
       </c>
       <c r="F39">
-        <v>1.813445425346139</v>
+        <v>1.937876984340292</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="B40">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="C40">
-        <v>-0.07214685054751518</v>
+        <v>-0.07194996223052474</v>
       </c>
       <c r="D40">
-        <v>-4.344542971388992</v>
+        <v>-4.347982078622498</v>
       </c>
       <c r="E40">
-        <v>4.200249270293962</v>
+        <v>4.204082154161449</v>
       </c>
       <c r="F40">
-        <v>-2.673092041311342</v>
+        <v>-0.1146460429385598</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="B41">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="C41">
-        <v>0.1174273633896393</v>
+        <v>0.01763148222557741</v>
       </c>
       <c r="D41">
-        <v>-4.155313614895429</v>
+        <v>-4.257582333707646</v>
       </c>
       <c r="E41">
-        <v>4.390168341674708</v>
+        <v>4.292845298158801</v>
       </c>
       <c r="F41">
-        <v>1.682696529616834</v>
+        <v>1.959454995814447</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="B42">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="C42">
-        <v>-0.08772193265816192</v>
+        <v>-0.07945650373065882</v>
       </c>
       <c r="D42">
-        <v>-4.360067993745517</v>
+        <v>-4.354500463105139</v>
       </c>
       <c r="E42">
-        <v>4.184624128429194</v>
+        <v>4.195587455643822</v>
       </c>
       <c r="F42">
-        <v>-1.891309330648738</v>
+        <v>1.035119047972444</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="B43">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="C43">
-        <v>0.09131456928223192</v>
+        <v>-0.02543831906005301</v>
       </c>
       <c r="D43">
-        <v>-4.180774259049557</v>
+        <v>-4.299878005114754</v>
       </c>
       <c r="E43">
-        <v>4.363403397614021</v>
+        <v>4.249001366994647</v>
       </c>
       <c r="F43">
-        <v>-1.502883712189984</v>
+        <v>-3.974408972352705</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="B44">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="C44">
-        <v>0.04250997088664077</v>
+        <v>0.159477249863255</v>
       </c>
       <c r="D44">
-        <v>-4.229200308796452</v>
+        <v>-4.116824267135689</v>
       </c>
       <c r="E44">
-        <v>4.314220250569734</v>
+        <v>4.4357787668622</v>
       </c>
       <c r="F44">
-        <v>-1.157490839607611</v>
+        <v>-1.135879403560658</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="B45">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="C45">
-        <v>0.03755211357674515</v>
+        <v>0.01542425939379535</v>
       </c>
       <c r="D45">
-        <v>-4.23359120555618</v>
+        <v>-4.260347654355737</v>
       </c>
       <c r="E45">
-        <v>4.30869543270967</v>
+        <v>4.291196173143328</v>
       </c>
       <c r="F45">
-        <v>1.308799689779505</v>
+        <v>-0.3227228853479147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="B46">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="C46">
-        <v>-0.05838752614488327</v>
+        <v>0.009673267251379701</v>
       </c>
       <c r="D46">
-        <v>-4.328994519420419</v>
+        <v>-4.26530123721709</v>
       </c>
       <c r="E46">
-        <v>4.212219467130653</v>
+        <v>4.284647771719849</v>
       </c>
       <c r="F46">
-        <v>-0.2422041753211701</v>
+        <v>-0.707758778661649</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="B47">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="C47">
-        <v>0.02033039233970257</v>
+        <v>0.02551114618140149</v>
       </c>
       <c r="D47">
-        <v>-4.249469780835094</v>
+        <v>-4.248735181623736</v>
       </c>
       <c r="E47">
-        <v>4.290130565514499</v>
+        <v>4.299757473986539</v>
       </c>
       <c r="F47">
-        <v>0.7850281861372821</v>
+        <v>0.4723953278507054</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="B48">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C48">
-        <v>-0.03466480097690317</v>
+        <v>-0.0228048044363053</v>
       </c>
       <c r="D48">
-        <v>-4.30375287952979</v>
+        <v>-4.296269321042847</v>
       </c>
       <c r="E48">
-        <v>4.234423277575984</v>
+        <v>4.250659712170237</v>
       </c>
       <c r="F48">
-        <v>1.017363652233882</v>
+        <v>-0.2063984220852078</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="B49">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="C49">
-        <v>-0.03358190297807939</v>
+        <v>0.01206822134238757</v>
       </c>
       <c r="D49">
-        <v>-4.302047675938268</v>
+        <v>-4.260586451117883</v>
       </c>
       <c r="E49">
-        <v>4.234883869982109</v>
+        <v>4.284722893802657</v>
       </c>
       <c r="F49">
-        <v>-3.083678433605996</v>
+        <v>1.813445425346139</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="B50">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="C50">
-        <v>0.1279568672424193</v>
+        <v>-0.07214685054751518</v>
       </c>
       <c r="D50">
-        <v>-4.141288769940012</v>
+        <v>-4.344542971388992</v>
       </c>
       <c r="E50">
-        <v>4.39720250442485</v>
+        <v>4.200249270293962</v>
       </c>
       <c r="F50">
-        <v>1.583950264537926</v>
+        <v>-2.673092041311342</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="B51">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="C51">
-        <v>-0.08674229018766494</v>
+        <v>0.1174273633896393</v>
       </c>
       <c r="D51">
-        <v>-4.355538915220105</v>
+        <v>-4.155313614895429</v>
       </c>
       <c r="E51">
-        <v>4.182054334844775</v>
+        <v>4.390168341674708</v>
       </c>
       <c r="F51">
-        <v>0.4221960432982286</v>
+        <v>1.682696529616834</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="B52">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="C52">
-        <v>-0.001050534282219281</v>
+        <v>-0.08772193265816192</v>
       </c>
       <c r="D52">
-        <v>-4.269080740972268</v>
+        <v>-4.360067993745517</v>
       </c>
       <c r="E52">
-        <v>4.266979672407829</v>
+        <v>4.184624128429194</v>
       </c>
       <c r="F52">
-        <v>-0.6339643874520462</v>
+        <v>-1.891309330648738</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="B53">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="C53">
-        <v>0.02543435175693132</v>
+        <v>0.09131456928223192</v>
       </c>
       <c r="D53">
-        <v>-4.241854078705245</v>
+        <v>-4.180774259049557</v>
       </c>
       <c r="E53">
-        <v>4.292722782219107</v>
+        <v>4.363403397614021</v>
       </c>
       <c r="F53">
-        <v>1.383480712929241</v>
+        <v>-1.502883712189984</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="B54">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="C54">
-        <v>-0.05980264415421055</v>
+        <v>0.04250997088664077</v>
       </c>
       <c r="D54">
-        <v>-4.32659635948287</v>
+        <v>-4.229200308796452</v>
       </c>
       <c r="E54">
-        <v>4.206991071174449</v>
+        <v>4.314220250569734</v>
       </c>
       <c r="F54">
-        <v>-0.4490353301626726</v>
+        <v>-1.157490839607611</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="B55">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="C55">
-        <v>0.0287120674729397</v>
+        <v>0.03755211357674515</v>
       </c>
       <c r="D55">
-        <v>-4.237298114841457</v>
+        <v>-4.23359120555618</v>
       </c>
       <c r="E55">
-        <v>4.294722249787337</v>
+        <v>4.30869543270967</v>
       </c>
       <c r="F55">
-        <v>1.518564241837339</v>
+        <v>1.308799689779505</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="B56">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="C56">
-        <v>-0.06594257721664998</v>
+        <v>-0.05838752614488327</v>
       </c>
       <c r="D56">
-        <v>-4.331522767452604</v>
+        <v>-4.328994519420419</v>
       </c>
       <c r="E56">
-        <v>4.199637613019304</v>
+        <v>4.212219467130653</v>
       </c>
       <c r="F56">
-        <v>-0.02955519454044264</v>
+        <v>-0.2422041753211701</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="B57">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="C57">
-        <v>0.0131673571361252</v>
+        <v>0.02033039233970257</v>
       </c>
       <c r="D57">
-        <v>-4.251604496064611</v>
+        <v>-4.249469780835094</v>
       </c>
       <c r="E57">
-        <v>4.277939210336862</v>
+        <v>4.290130565514499</v>
       </c>
       <c r="F57">
-        <v>0.8242613637937879</v>
+        <v>0.7850281861372821</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="B58">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="C58">
-        <v>-0.03537017211369736</v>
+        <v>-0.03466480097690317</v>
       </c>
       <c r="D58">
-        <v>-4.299446173493646</v>
+        <v>-4.30375287952979</v>
       </c>
       <c r="E58">
-        <v>4.228705829266252</v>
+        <v>4.234423277575984</v>
       </c>
       <c r="F58">
-        <v>0.1171989586243427</v>
+        <v>1.017363652233882</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="B59">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="C59">
-        <v>0.001773179433478791</v>
+        <v>-0.03358190297807939</v>
       </c>
       <c r="D59">
-        <v>-4.261499130587128</v>
+        <v>-4.302047675938268</v>
       </c>
       <c r="E59">
-        <v>4.265045489454086</v>
+        <v>4.234883869982109</v>
       </c>
       <c r="F59">
-        <v>-1.267145288314353</v>
+        <v>-3.083678433605996</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="B60">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="C60">
-        <v>0.05038768118811562</v>
+        <v>0.1279568672424193</v>
       </c>
       <c r="D60">
-        <v>-4.212352171187723</v>
+        <v>-4.141288769940012</v>
       </c>
       <c r="E60">
-        <v>4.313127533563954</v>
+        <v>4.39720250442485</v>
       </c>
       <c r="F60">
-        <v>-0.4756251534649536</v>
+        <v>1.583950264537926</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="B61">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="C61">
-        <v>0.009837340443454107</v>
+        <v>-0.08674229018766494</v>
       </c>
       <c r="D61">
-        <v>-4.252142894443106</v>
+        <v>-4.355538915220105</v>
       </c>
       <c r="E61">
-        <v>4.271817575330014</v>
+        <v>4.182054334844775</v>
       </c>
       <c r="F61">
-        <v>1.155397240570011</v>
+        <v>0.4221960432982286</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="B62">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="C62">
-        <v>-0.04794689682024869</v>
+        <v>-0.001050534282219281</v>
       </c>
       <c r="D62">
-        <v>-4.309344607753189</v>
+        <v>-4.269080740972268</v>
       </c>
       <c r="E62">
-        <v>4.213450814112692</v>
+        <v>4.266979672407829</v>
       </c>
       <c r="F62">
-        <v>0.4994868618773296</v>
+        <v>-0.6339643874520462</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="B63">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="C63">
-        <v>-0.01126447059175158</v>
+        <v>0.02543435175693132</v>
       </c>
       <c r="D63">
-        <v>-4.271907339600677</v>
+        <v>-4.241854078705245</v>
       </c>
       <c r="E63">
-        <v>4.249378398417173</v>
+        <v>4.292722782219107</v>
       </c>
       <c r="F63">
-        <v>2.917174365425623</v>
+        <v>1.383480712929241</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="B64">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="C64">
-        <v>-0.1141012689818288</v>
+        <v>-0.05980264415421055</v>
       </c>
       <c r="D64">
-        <v>-4.375400206046453</v>
+        <v>-4.32659635948287</v>
       </c>
       <c r="E64">
-        <v>4.147197668082796</v>
+        <v>4.206991071174449</v>
       </c>
       <c r="F64">
-        <v>0.08536065392412695</v>
+        <v>-0.4490353301626726</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="B65">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="C65">
-        <v>0.01752754326239174</v>
+        <v>0.0287120674729397</v>
       </c>
       <c r="D65">
-        <v>-4.242972861393793</v>
+        <v>-4.237298114841457</v>
       </c>
       <c r="E65">
-        <v>4.278027947918576</v>
+        <v>4.294722249787337</v>
       </c>
       <c r="F65">
-        <v>-1.201731200401746</v>
+        <v>1.518564241837339</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="B66">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="C66">
-        <v>0.04462568839699196</v>
+        <v>-0.06594257721664998</v>
       </c>
       <c r="D66">
-        <v>-4.215323127386727</v>
+        <v>-4.331522767452604</v>
       </c>
       <c r="E66">
-        <v>4.30457450418071</v>
+        <v>4.199637613019304</v>
       </c>
       <c r="F66">
-        <v>-0.1152073860145819</v>
+        <v>-0.02955519454044264</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="B67">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="C67">
-        <v>-0.003525185147475147</v>
+        <v>0.0131673571361252</v>
       </c>
       <c r="D67">
-        <v>-4.262673902020095</v>
+        <v>-4.251604496064611</v>
       </c>
       <c r="E67">
-        <v>4.255623531725146</v>
+        <v>4.277939210336862</v>
       </c>
       <c r="F67">
-        <v>-1.101141233305114</v>
+        <v>0.8242613637937879</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="B68">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="C68">
-        <v>0.04439785961613421</v>
+        <v>-0.03537017211369736</v>
       </c>
       <c r="D68">
-        <v>-4.214151977308349</v>
+        <v>-4.299446173493646</v>
       </c>
       <c r="E68">
-        <v>4.302947696540617</v>
+        <v>4.228705829266252</v>
       </c>
       <c r="F68">
-        <v>-0.8779687652046064</v>
+        <v>0.1171989586243427</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="B69">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="C69">
-        <v>0.02674017773485635</v>
+        <v>0.001773179433478791</v>
       </c>
       <c r="D69">
-        <v>-4.231150911068798</v>
+        <v>-4.261499130587128</v>
       </c>
       <c r="E69">
-        <v>4.28463126653851</v>
+        <v>4.265045489454086</v>
       </c>
       <c r="F69">
-        <v>-0.05880623515537309</v>
+        <v>-1.267145288314353</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="B70">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="C70">
-        <v>-0.002542499054615352</v>
+        <v>0.05038768118811562</v>
       </c>
       <c r="D70">
-        <v>-4.25963168311643</v>
+        <v>-4.212352171187723</v>
       </c>
       <c r="E70">
-        <v>4.254546685007199</v>
+        <v>4.313127533563954</v>
       </c>
       <c r="F70">
-        <v>-1.00503358535029</v>
+        <v>-0.4756251534649536</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="B71">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="C71">
-        <v>0.04031870035480434</v>
+        <v>0.009837340443454107</v>
       </c>
       <c r="D71">
-        <v>-4.216138791706847</v>
+        <v>-4.252142894443106</v>
       </c>
       <c r="E71">
-        <v>4.296776192416456</v>
+        <v>4.271817575330014</v>
       </c>
       <c r="F71">
-        <v>-1.52674721307875</v>
+        <v>1.155397240570011</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="B72">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="C72">
-        <v>0.05301563410033083</v>
+        <v>-0.04794689682024869</v>
       </c>
       <c r="D72">
-        <v>-4.203057331533082</v>
+        <v>-4.309344607753189</v>
       </c>
       <c r="E72">
-        <v>4.309088599733744</v>
+        <v>4.213450814112692</v>
       </c>
       <c r="F72">
-        <v>-1.887997614661252</v>
+        <v>0.4994868618773296</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="B73">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="C73">
-        <v>0.06453684471462257</v>
+        <v>-0.01126447059175158</v>
       </c>
       <c r="D73">
-        <v>-4.191374811787227</v>
+        <v>-4.271907339600677</v>
       </c>
       <c r="E73">
-        <v>4.320448501216472</v>
+        <v>4.249378398417173</v>
       </c>
       <c r="F73">
-        <v>0.1842752364211719</v>
+        <v>2.917174365425623</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="B74">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="C74">
-        <v>-0.01913747221777169</v>
+        <v>-0.1141012689818288</v>
       </c>
       <c r="D74">
-        <v>-4.274250002285773</v>
+        <v>-4.375400206046453</v>
       </c>
       <c r="E74">
-        <v>4.23597505785023</v>
+        <v>4.147197668082796</v>
       </c>
       <c r="F74">
-        <v>-0.3688906734716113</v>
+        <v>0.08536065392412695</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="B75">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="C75">
-        <v>0.01806700148804806</v>
+        <v>0.01752754326239174</v>
       </c>
       <c r="D75">
-        <v>-4.236265196041214</v>
+        <v>-4.242972861393793</v>
       </c>
       <c r="E75">
-        <v>4.27239919901731</v>
+        <v>4.278027947918576</v>
       </c>
       <c r="F75">
-        <v>-1.52058787089473</v>
+        <v>-1.201731200401746</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="B76">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="C76">
-        <v>0.05645349587796566</v>
+        <v>0.04462568839699196</v>
       </c>
       <c r="D76">
-        <v>-4.197480395816586</v>
+        <v>-4.215323127386727</v>
       </c>
       <c r="E76">
-        <v>4.310387387572518</v>
+        <v>4.30457450418071</v>
       </c>
       <c r="F76">
-        <v>-1.957751192360035</v>
+        <v>-0.1152073860145819</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="B77">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="C77">
-        <v>0.06612178481389314</v>
+        <v>-0.003525185147475147</v>
       </c>
       <c r="D77">
-        <v>-4.187700953128335</v>
+        <v>-4.262673902020095</v>
       </c>
       <c r="E77">
-        <v>4.319944522756121</v>
+        <v>4.255623531725146</v>
       </c>
       <c r="F77">
-        <v>1.235952985649291</v>
+        <v>-1.101141233305114</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="B78">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="C78">
-        <v>-0.06069761790143677</v>
+        <v>0.04439785961613421</v>
       </c>
       <c r="D78">
-        <v>-4.313952782712941</v>
+        <v>-4.214151977308349</v>
       </c>
       <c r="E78">
-        <v>4.192557546910067</v>
+        <v>4.302947696540617</v>
       </c>
       <c r="F78">
-        <v>-0.6319136351477184</v>
+        <v>-0.8779687652046064</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="B79">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="C79">
-        <v>0.03602752909824317</v>
+        <v>0.02674017773485635</v>
       </c>
       <c r="D79">
-        <v>-4.216483448646196</v>
+        <v>-4.231150911068798</v>
       </c>
       <c r="E79">
-        <v>4.288538506842682</v>
+        <v>4.28463126653851</v>
       </c>
       <c r="F79">
-        <v>3.518968100457975</v>
+        <v>-0.05880623515537309</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="B80">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="C80">
-        <v>-0.1458494584837433</v>
+        <v>-0.002542499054615352</v>
       </c>
       <c r="D80">
-        <v>-4.399619921429732</v>
+        <v>-4.25963168311643</v>
       </c>
       <c r="E80">
-        <v>4.107921004462245</v>
+        <v>4.254546685007199</v>
       </c>
       <c r="F80">
-        <v>1.999460733084568</v>
+        <v>-1.00503358535029</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="B81">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="C81">
-        <v>-0.05094997871619994</v>
+        <v>0.04031870035480434</v>
       </c>
       <c r="D81">
-        <v>-4.30470145568979</v>
+        <v>-4.216138791706847</v>
       </c>
       <c r="E81">
-        <v>4.20280149825739</v>
+        <v>4.296776192416456</v>
       </c>
       <c r="F81">
-        <v>1.222253999589107</v>
+        <v>-1.52674721307875</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="B82">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="C82">
-        <v>-0.0378131505873171</v>
+        <v>0.05301563410033083</v>
       </c>
       <c r="D82">
-        <v>-4.291040540668894</v>
+        <v>-4.203057331533082</v>
       </c>
       <c r="E82">
-        <v>4.215414239494261</v>
+        <v>4.309088599733744</v>
       </c>
       <c r="F82">
-        <v>5.589012018352868</v>
+        <v>-1.887997614661252</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="B83">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="C83">
-        <v>-0.2071042065227879</v>
+        <v>0.06453684471462257</v>
       </c>
       <c r="D83">
-        <v>-4.46489765724521</v>
+        <v>-4.191374811787227</v>
       </c>
       <c r="E83">
-        <v>4.050689244199633</v>
+        <v>4.320448501216472</v>
       </c>
       <c r="F83">
-        <v>-1.923680253549342</v>
+        <v>0.1842752364211719</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="B84">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="C84">
-        <v>0.1152944678320436</v>
+        <v>-0.01913747221777169</v>
       </c>
       <c r="D84">
-        <v>-4.142197857758211</v>
+        <v>-4.274250002285773</v>
       </c>
       <c r="E84">
-        <v>4.372786793422298</v>
+        <v>4.23597505785023</v>
       </c>
       <c r="F84">
-        <v>0.8249228972676548</v>
+        <v>-0.3688906734716113</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="B85">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="C85">
-        <v>-0.05469436519703075</v>
+        <v>0.01806700148804806</v>
       </c>
       <c r="D85">
-        <v>-4.311473180791533</v>
+        <v>-4.236265196041214</v>
       </c>
       <c r="E85">
-        <v>4.202084450397472</v>
+        <v>4.27239919901731</v>
       </c>
       <c r="F85">
-        <v>0.02832460010431248</v>
+        <v>-1.52058787089473</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="B86">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="C86">
-        <v>0.009429390782824461</v>
+        <v>0.05645349587796566</v>
       </c>
       <c r="D86">
-        <v>-4.246552476424225</v>
+        <v>-4.197480395816586</v>
       </c>
       <c r="E86">
-        <v>4.265411257989874</v>
+        <v>4.310387387572518</v>
       </c>
       <c r="F86">
-        <v>-2.727311282423983</v>
+        <v>-1.957751192360035</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="B87">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="C87">
-        <v>0.1050457027582505</v>
+        <v>0.06612178481389314</v>
       </c>
       <c r="D87">
-        <v>-4.151405473683616</v>
+        <v>-4.187700953128335</v>
       </c>
       <c r="E87">
-        <v>4.361496879200117</v>
+        <v>4.319944522756121</v>
       </c>
       <c r="F87">
-        <v>-1.524956237803288</v>
+        <v>1.235952985649291</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="B88">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="C88">
-        <v>0.03939169451975644</v>
+        <v>-0.06069761790143677</v>
       </c>
       <c r="D88">
-        <v>-4.216711054731698</v>
+        <v>-4.313952782712941</v>
       </c>
       <c r="E88">
-        <v>4.295494443771211</v>
+        <v>4.192557546910067</v>
       </c>
       <c r="F88">
-        <v>-1.578588253243396</v>
+        <v>-0.6319136351477184</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="B89">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="C89">
-        <v>0.05355450643166582</v>
+        <v>0.03602752909824317</v>
       </c>
       <c r="D89">
-        <v>-4.202193498312653</v>
+        <v>-4.216483448646196</v>
       </c>
       <c r="E89">
-        <v>4.309302511175984</v>
+        <v>4.288538506842682</v>
       </c>
       <c r="F89">
-        <v>1.726233341337213</v>
+        <v>3.518968100457975</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="B90">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="C90">
-        <v>-0.07735205404127904</v>
+        <v>-0.1458494584837433</v>
       </c>
       <c r="D90">
-        <v>-4.332776114888499</v>
+        <v>-4.399619921429732</v>
       </c>
       <c r="E90">
-        <v>4.17807200680594</v>
+        <v>4.107921004462245</v>
       </c>
       <c r="F90">
-        <v>0.3534613400145048</v>
+        <v>1.999460733084568</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="B91">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="C91">
-        <v>0.001142227608750421</v>
+        <v>-0.05094997871619994</v>
       </c>
       <c r="D91">
-        <v>-4.253516827087616</v>
+        <v>-4.30470145568979</v>
       </c>
       <c r="E91">
-        <v>4.255801282305117</v>
+        <v>4.20280149825739</v>
       </c>
       <c r="F91">
-        <v>-2.591358702068725</v>
+        <v>1.222253999589107</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="B92">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="C92">
-        <v>0.1003977820025135</v>
+        <v>-0.0378131505873171</v>
       </c>
       <c r="D92">
-        <v>-4.154600530070842</v>
+        <v>-4.291040540668894</v>
       </c>
       <c r="E92">
-        <v>4.355396094075869</v>
+        <v>4.215414239494261</v>
       </c>
       <c r="F92">
-        <v>0.6616565492128856</v>
+        <v>5.589012018352868</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="B93">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="C93">
-        <v>-0.04470928293728454</v>
+        <v>-0.2071042065227879</v>
       </c>
       <c r="D93">
-        <v>-4.298965051389656</v>
+        <v>-4.46489765724521</v>
       </c>
       <c r="E93">
-        <v>4.209546485515087</v>
+        <v>4.050689244199633</v>
       </c>
       <c r="F93">
-        <v>-1.388491971922079</v>
+        <v>-1.923680253549342</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="B94">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="C94">
-        <v>0.06282574597632062</v>
+        <v>0.1152944678320436</v>
       </c>
       <c r="D94">
-        <v>-4.190939448598243</v>
+        <v>-4.142197857758211</v>
       </c>
       <c r="E94">
-        <v>4.316590940550885</v>
+        <v>4.372786793422298</v>
       </c>
       <c r="F94">
-        <v>0.3640780720656878</v>
+        <v>0.8249228972676548</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="B95">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="C95">
-        <v>-0.02616546888247162</v>
+        <v>-0.05469436519703075</v>
       </c>
       <c r="D95">
-        <v>-4.279151101375145</v>
+        <v>-4.311473180791533</v>
       </c>
       <c r="E95">
-        <v>4.226820163610203</v>
+        <v>4.202084450397472</v>
       </c>
       <c r="F95">
-        <v>2.364317822781281</v>
+        <v>0.02832460010431248</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="B96">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C96">
-        <v>-0.08722538485943987</v>
+        <v>0.009429390782824461</v>
       </c>
       <c r="D96">
-        <v>-4.340380732016382</v>
+        <v>-4.246552476424225</v>
       </c>
       <c r="E96">
-        <v>4.165929962297503</v>
+        <v>4.265411257989874</v>
       </c>
       <c r="F96">
-        <v>1.088406096764949</v>
+        <v>-2.727311282423983</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="B97">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="C97">
-        <v>-0.02579310051132244</v>
+        <v>0.1050457027582505</v>
       </c>
       <c r="D97">
-        <v>-4.27838729714797</v>
+        <v>-4.151405473683616</v>
       </c>
       <c r="E97">
-        <v>4.226801096125326</v>
+        <v>4.361496879200117</v>
       </c>
       <c r="F97">
-        <v>1.567521210470524</v>
+        <v>-1.524956237803288</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="B98">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="C98">
-        <v>-0.05573102178875944</v>
+        <v>0.03939169451975644</v>
       </c>
       <c r="D98">
-        <v>-4.307959414580942</v>
+        <v>-4.216711054731698</v>
       </c>
       <c r="E98">
-        <v>4.196497371003424</v>
+        <v>4.295494443771211</v>
       </c>
       <c r="F98">
-        <v>-0.9259325412797281</v>
+        <v>-1.578588253243396</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="B99">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="C99">
-        <v>0.04651118453574257</v>
+        <v>0.05355450643166582</v>
       </c>
       <c r="D99">
-        <v>-4.205051444498584</v>
+        <v>-4.202193498312653</v>
       </c>
       <c r="E99">
-        <v>4.29807381357007</v>
+        <v>4.309302511175984</v>
       </c>
       <c r="F99">
-        <v>1.213536996069031</v>
+        <v>1.726233341337213</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="B100">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="C100">
-        <v>-0.05606267553936525</v>
+        <v>-0.07735205404127904</v>
       </c>
       <c r="D100">
-        <v>-4.307061794883058</v>
+        <v>-4.332776114888499</v>
       </c>
       <c r="E100">
-        <v>4.194936443804327</v>
+        <v>4.17807200680594</v>
       </c>
       <c r="F100">
-        <v>2.831446229252244</v>
+        <v>0.3534613400145048</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="B101">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="C101">
-        <v>-0.09868784349743587</v>
+        <v>0.001142227608750421</v>
       </c>
       <c r="D101">
-        <v>-4.350298944832758</v>
+        <v>-4.253516827087616</v>
       </c>
       <c r="E101">
-        <v>4.152923257837887</v>
+        <v>4.255801282305117</v>
       </c>
       <c r="F101">
-        <v>-0.6722714394877372</v>
+        <v>-2.591358702068725</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="B102">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="C102">
-        <v>0.04472518604649695</v>
+        <v>0.1003977820025135</v>
       </c>
       <c r="D102">
-        <v>-4.206148913707402</v>
+        <v>-4.154600530070842</v>
       </c>
       <c r="E102">
-        <v>4.295599285800396</v>
+        <v>4.355396094075869</v>
       </c>
       <c r="F102">
-        <v>-0.2532715579283362</v>
+        <v>0.6616565492128856</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="B103">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="C103">
-        <v>0.001373641272252778</v>
+        <v>-0.04470928293728454</v>
       </c>
       <c r="D103">
-        <v>-4.248723453579011</v>
+        <v>-4.298965051389656</v>
       </c>
       <c r="E103">
-        <v>4.251470736123517</v>
+        <v>4.209546485515087</v>
       </c>
       <c r="F103">
-        <v>0.3937012959339015</v>
+        <v>-1.388491971922079</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="B104">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="C104">
-        <v>-0.01548925744706119</v>
+        <v>0.06282574597632062</v>
       </c>
       <c r="D104">
-        <v>-4.264820745610661</v>
+        <v>-4.190939448598243</v>
       </c>
       <c r="E104">
-        <v>4.233842230716538</v>
+        <v>4.316590940550885</v>
       </c>
       <c r="F104">
-        <v>3.502357142873791</v>
+        <v>0.3640780720656878</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="B105">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="C105">
-        <v>-0.1321521004109774</v>
+        <v>-0.02616546888247162</v>
       </c>
       <c r="D105">
-        <v>-4.382774947140227</v>
+        <v>-4.279151101375145</v>
       </c>
       <c r="E105">
-        <v>4.118470746318273</v>
+        <v>4.226820163610203</v>
       </c>
       <c r="F105">
-        <v>-0.1355932411136962</v>
+        <v>2.364317822781281</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="B106">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="C106">
-        <v>0.03019369807414739</v>
+        <v>-0.08722538485943987</v>
       </c>
       <c r="D106">
-        <v>-4.219638116583391</v>
+        <v>-4.340380732016382</v>
       </c>
       <c r="E106">
-        <v>4.280025512731686</v>
+        <v>4.165929962297503</v>
       </c>
       <c r="F106">
-        <v>-0.4078863574820346</v>
+        <v>1.088406096764949</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="B107">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C107">
-        <v>0.01006916838034998</v>
+        <v>-0.02579310051132244</v>
       </c>
       <c r="D107">
-        <v>-4.239004344443908</v>
+        <v>-4.27838729714797</v>
       </c>
       <c r="E107">
-        <v>4.259142681204608</v>
+        <v>4.226801096125326</v>
       </c>
       <c r="F107">
-        <v>0.3264420744407914</v>
+        <v>1.567521210470524</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="B108">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="C108">
-        <v>-0.014479892820324</v>
+        <v>-0.05573102178875944</v>
       </c>
       <c r="D108">
-        <v>-4.262780080936091</v>
+        <v>-4.307959414580942</v>
       </c>
       <c r="E108">
-        <v>4.233820295295443</v>
+        <v>4.196497371003424</v>
       </c>
       <c r="F108">
-        <v>-0.735998960914408</v>
+        <v>-0.9259325412797281</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="B109">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="C109">
-        <v>0.03111342323956992</v>
+        <v>0.04651118453574257</v>
       </c>
       <c r="D109">
-        <v>-4.216484560666763</v>
+        <v>-4.205051444498584</v>
       </c>
       <c r="E109">
-        <v>4.278711407145903</v>
+        <v>4.29807381357007</v>
       </c>
       <c r="F109">
-        <v>1.250696020227693</v>
+        <v>1.213536996069031</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="B110">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="C110">
-        <v>-0.05419193384597834</v>
+        <v>-0.05606267553936525</v>
       </c>
       <c r="D110">
-        <v>-4.301250595436994</v>
+        <v>-4.307061794883058</v>
       </c>
       <c r="E110">
-        <v>4.192866727745036</v>
+        <v>4.194936443804327</v>
       </c>
       <c r="F110">
-        <v>0.02701607472861411</v>
+        <v>2.831446229252244</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="B111">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C111">
-        <v>0.009130305949605238</v>
+        <v>-0.09868784349743587</v>
       </c>
       <c r="D111">
-        <v>-4.237140561158714</v>
+        <v>-4.350298944832758</v>
       </c>
       <c r="E111">
-        <v>4.255401173057924</v>
+        <v>4.152923257837887</v>
       </c>
       <c r="F111">
-        <v>0.05401026326268266</v>
+        <v>-0.6722714394877372</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="B112">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="C112">
-        <v>-0.003802161375162354</v>
+        <v>0.04472518604649695</v>
       </c>
       <c r="D112">
-        <v>-4.249284902325222</v>
+        <v>-4.206148913707402</v>
       </c>
       <c r="E112">
-        <v>4.241680579574897</v>
+        <v>4.295599285800396</v>
       </c>
       <c r="F112">
-        <v>1.553741409490605</v>
+        <v>-0.2532715579283362</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="B113">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="C113">
-        <v>-0.0593149142961355</v>
+        <v>0.001373641272252778</v>
       </c>
       <c r="D113">
-        <v>-4.30441710778771</v>
+        <v>-4.248723453579011</v>
       </c>
       <c r="E113">
-        <v>4.18578727919544</v>
+        <v>4.251470736123517</v>
       </c>
       <c r="F113">
-        <v>-0.6132534883862562</v>
+        <v>0.3937012959339015</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="B114">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="C114">
-        <v>0.03486361984837857</v>
+        <v>-0.01548925744706119</v>
       </c>
       <c r="D114">
-        <v>-4.209502435519268</v>
+        <v>-4.264820745610661</v>
       </c>
       <c r="E114">
-        <v>4.279229675216025</v>
+        <v>4.233842230716538</v>
       </c>
       <c r="F114">
-        <v>0.2670941758799117</v>
+        <v>3.502357142873791</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="B115">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="C115">
-        <v>-0.01688073975171436</v>
+        <v>-0.1321521004109774</v>
       </c>
       <c r="D115">
-        <v>-4.260468611642901</v>
+        <v>-4.382774947140227</v>
       </c>
       <c r="E115">
-        <v>4.226707132139472</v>
+        <v>4.118470746318273</v>
       </c>
       <c r="F115">
-        <v>-1.045726113443202</v>
+        <v>-0.1355932411136962</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="B116">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="C116">
-        <v>0.04368793040202446</v>
+        <v>0.03019369807414739</v>
       </c>
       <c r="D116">
-        <v>-4.199290807029461</v>
+        <v>-4.219638116583391</v>
       </c>
       <c r="E116">
-        <v>4.28666666783351</v>
+        <v>4.280025512731686</v>
       </c>
       <c r="F116">
-        <v>0.05389383046114915</v>
+        <v>-0.4078863574820346</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="B117">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="C117">
-        <v>-0.01029689431919992</v>
+        <v>0.01006916838034998</v>
       </c>
       <c r="D117">
-        <v>-4.252489256979884</v>
+        <v>-4.239004344443908</v>
       </c>
       <c r="E117">
-        <v>4.231895468341484</v>
+        <v>4.259142681204608</v>
       </c>
       <c r="F117">
-        <v>-2.426840301101407</v>
+        <v>0.3264420744407914</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="B118">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="C118">
-        <v>0.0960503322577827</v>
+        <v>-0.014479892820324</v>
       </c>
       <c r="D118">
-        <v>-4.146335719861724</v>
+        <v>-4.262780080936091</v>
       </c>
       <c r="E118">
-        <v>4.33843638437729</v>
+        <v>4.233820295295443</v>
       </c>
       <c r="F118">
-        <v>1.994874186649653</v>
+        <v>-0.735998960914408</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="B119">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="C119">
-        <v>-0.09631962870330252</v>
+        <v>0.03111342323956992</v>
       </c>
       <c r="D119">
-        <v>-4.338524362676355</v>
+        <v>-4.216484560666763</v>
       </c>
       <c r="E119">
-        <v>4.145885105269751</v>
+        <v>4.278711407145903</v>
       </c>
       <c r="F119">
-        <v>-2.077712794175746</v>
+        <v>1.250696020227693</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="B120">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="C120">
-        <v>0.1005968082566041</v>
+        <v>-0.05419193384597834</v>
       </c>
       <c r="D120">
-        <v>-4.141480231197523</v>
+        <v>-4.301250595436994</v>
       </c>
       <c r="E120">
-        <v>4.342673847710731</v>
+        <v>4.192866727745036</v>
       </c>
       <c r="F120">
-        <v>-2.943450057505181</v>
+        <v>0.02701607472861411</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="B121">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="C121">
-        <v>0.09601885553974798</v>
+        <v>0.009130305949605238</v>
       </c>
       <c r="D121">
-        <v>-4.146825257340544</v>
+        <v>-4.237140561158714</v>
       </c>
       <c r="E121">
-        <v>4.338862968420041</v>
+        <v>4.255401173057924</v>
       </c>
       <c r="F121">
-        <v>0.8498634721462395</v>
+        <v>0.05401026326268266</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="B122">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="C122">
-        <v>-0.0512061556554182</v>
+        <v>-0.003802161375162354</v>
       </c>
       <c r="D122">
-        <v>-4.293360524729203</v>
+        <v>-4.249284902325222</v>
       </c>
       <c r="E122">
-        <v>4.190948213418367</v>
+        <v>4.241680579574897</v>
       </c>
       <c r="F122">
-        <v>0.6467054733672484</v>
+        <v>1.553741409490605</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="B123">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C123">
-        <v>-0.01576577104191154</v>
+        <v>-0.0593149142961355</v>
       </c>
       <c r="D123">
-        <v>-4.257217230146056</v>
+        <v>-4.30441710778771</v>
       </c>
       <c r="E123">
-        <v>4.225685688062233</v>
+        <v>4.18578727919544</v>
       </c>
       <c r="F123">
-        <v>-1.240850664382975</v>
+        <v>-0.6132534883862562</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="B124">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="C124">
-        <v>0.05140611888837721</v>
+        <v>0.03486361984837857</v>
       </c>
       <c r="D124">
-        <v>-4.189512580102955</v>
+        <v>-4.209502435519268</v>
       </c>
       <c r="E124">
-        <v>4.29232481787971</v>
+        <v>4.279229675216025</v>
       </c>
       <c r="F124">
-        <v>0.6223499578082325</v>
+        <v>0.2670941758799117</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="B125">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="C125">
-        <v>-0.0338458834134419</v>
+        <v>-0.01688073975171436</v>
       </c>
       <c r="D125">
-        <v>-4.274035461062336</v>
+        <v>-4.260468611642901</v>
       </c>
       <c r="E125">
-        <v>4.206343694235452</v>
+        <v>4.226707132139472</v>
       </c>
       <c r="F125">
-        <v>0.3378381591627289</v>
+        <v>-1.045726113443202</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B126">
+        <v>2697</v>
+      </c>
+      <c r="C126">
+        <v>0.04368793040202446</v>
+      </c>
+      <c r="D126">
+        <v>-4.199290807029461</v>
+      </c>
+      <c r="E126">
+        <v>4.28666666783351</v>
+      </c>
+      <c r="F126">
+        <v>0.05389383046114915</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B127">
+        <v>2698</v>
+      </c>
+      <c r="C127">
+        <v>-0.01029689431919992</v>
+      </c>
+      <c r="D127">
+        <v>-4.252489256979884</v>
+      </c>
+      <c r="E127">
+        <v>4.231895468341484</v>
+      </c>
+      <c r="F127">
+        <v>-2.426840301101407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B128">
+        <v>2699</v>
+      </c>
+      <c r="C128">
+        <v>0.0960503322577827</v>
+      </c>
+      <c r="D128">
+        <v>-4.146335719861724</v>
+      </c>
+      <c r="E128">
+        <v>4.33843638437729</v>
+      </c>
+      <c r="F128">
+        <v>1.994874186649653</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B129">
+        <v>2700</v>
+      </c>
+      <c r="C129">
+        <v>-0.09631962870330252</v>
+      </c>
+      <c r="D129">
+        <v>-4.338524362676355</v>
+      </c>
+      <c r="E129">
+        <v>4.145885105269751</v>
+      </c>
+      <c r="F129">
+        <v>-2.077712794175746</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B130">
+        <v>2701</v>
+      </c>
+      <c r="C130">
+        <v>0.1005968082566041</v>
+      </c>
+      <c r="D130">
+        <v>-4.141480231197523</v>
+      </c>
+      <c r="E130">
+        <v>4.342673847710731</v>
+      </c>
+      <c r="F130">
+        <v>-2.943450057505181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B131">
+        <v>2702</v>
+      </c>
+      <c r="C131">
+        <v>0.09601885553974798</v>
+      </c>
+      <c r="D131">
+        <v>-4.146825257340544</v>
+      </c>
+      <c r="E131">
+        <v>4.338862968420041</v>
+      </c>
+      <c r="F131">
+        <v>0.8498634721462395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B132">
+        <v>2703</v>
+      </c>
+      <c r="C132">
+        <v>-0.0512061556554182</v>
+      </c>
+      <c r="D132">
+        <v>-4.293360524729203</v>
+      </c>
+      <c r="E132">
+        <v>4.190948213418367</v>
+      </c>
+      <c r="F132">
+        <v>0.6467054733672484</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B133">
+        <v>2704</v>
+      </c>
+      <c r="C133">
+        <v>-0.01576577104191154</v>
+      </c>
+      <c r="D133">
+        <v>-4.257217230146056</v>
+      </c>
+      <c r="E133">
+        <v>4.225685688062233</v>
+      </c>
+      <c r="F133">
+        <v>-1.240850664382975</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B134">
+        <v>2705</v>
+      </c>
+      <c r="C134">
+        <v>0.05140611888837721</v>
+      </c>
+      <c r="D134">
+        <v>-4.189512580102955</v>
+      </c>
+      <c r="E134">
+        <v>4.29232481787971</v>
+      </c>
+      <c r="F134">
+        <v>0.6223499578082325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B135">
+        <v>2706</v>
+      </c>
+      <c r="C135">
+        <v>-0.0338458834134419</v>
+      </c>
+      <c r="D135">
+        <v>-4.274035461062336</v>
+      </c>
+      <c r="E135">
+        <v>4.206343694235452</v>
+      </c>
+      <c r="F135">
+        <v>0.3378381591627289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>2708</v>
       </c>
-      <c r="B126">
+      <c r="B136">
         <v>2707</v>
       </c>
-      <c r="C126">
+      <c r="C136">
         <v>-0.006983683319603709</v>
       </c>
-      <c r="D126">
+      <c r="D136">
         <v>-4.246413125547249</v>
       </c>
-      <c r="E126">
+      <c r="E136">
         <v>4.232445758908042</v>
       </c>
-      <c r="F126">
+      <c r="F136">
         <v>-1.187460942071183</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2701 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.0147656330385276</v>
+        <v>-0.07882785746192522</v>
       </c>
       <c r="D2">
-        <v>-4.301067898421305</v>
+        <v>-4.368412384219863</v>
       </c>
       <c r="E2">
-        <v>4.271536632344249</v>
+        <v>4.210756669296013</v>
       </c>
       <c r="F2">
-        <v>3.788670871940347</v>
+        <v>-1.434589497026728</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="B3">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="C3">
-        <v>-0.1448397983493485</v>
+        <v>0.07154947042620258</v>
       </c>
       <c r="D3">
-        <v>-4.432827451707528</v>
+        <v>-4.217523337374781</v>
       </c>
       <c r="E3">
-        <v>4.143147855008831</v>
+        <v>4.360622278227187</v>
       </c>
       <c r="F3">
-        <v>1.712420309043061</v>
+        <v>0.9226659757088029</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="B4">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.03717079871838547</v>
+        <v>-0.05007366095479257</v>
       </c>
       <c r="D4">
-        <v>-4.32492525981304</v>
+        <v>-4.338442228423963</v>
       </c>
       <c r="E4">
-        <v>4.250583662376269</v>
+        <v>4.238294906514378</v>
       </c>
       <c r="F4">
-        <v>-2.152497299169553</v>
+        <v>0.5119235213179252</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="B5">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="C5">
-        <v>0.09068589001661104</v>
+        <v>-0.01068017574972406</v>
       </c>
       <c r="D5">
-        <v>-4.197014243664599</v>
+        <v>-4.298274248741298</v>
       </c>
       <c r="E5">
-        <v>4.378386023697821</v>
+        <v>4.27691389724185</v>
       </c>
       <c r="F5">
-        <v>-0.8266949945545221</v>
+        <v>-0.8365991312048848</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="B6">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.01416564600208636</v>
+        <v>0.03505341068679599</v>
       </c>
       <c r="D6">
-        <v>-4.272848763293206</v>
+        <v>-4.251830068623438</v>
       </c>
       <c r="E6">
-        <v>4.30118005529738</v>
+        <v>4.321936889997031</v>
       </c>
       <c r="F6">
-        <v>4.492858206503136</v>
+        <v>-2.413721129867241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="B7">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.1764810277395721</v>
+        <v>0.08813498545005022</v>
       </c>
       <c r="D7">
-        <v>-4.46614892847532</v>
+        <v>-4.198958359648293</v>
       </c>
       <c r="E7">
-        <v>4.113186872996176</v>
+        <v>4.375228330548394</v>
       </c>
       <c r="F7">
-        <v>-1.398624197473985</v>
+        <v>-0.6405814969875578</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="B8">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.08835043952645699</v>
+        <v>0.008366278707843539</v>
       </c>
       <c r="D8">
-        <v>-4.200744582815187</v>
+        <v>-4.277990913750599</v>
       </c>
       <c r="E8">
-        <v>4.377445461868102</v>
+        <v>4.294723471166285</v>
       </c>
       <c r="F8">
-        <v>2.861790424280386</v>
+        <v>-0.1118255637917898</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="B9">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="C9">
-        <v>-0.130786580703723</v>
+        <v>0.002785139272854335</v>
       </c>
       <c r="D9">
-        <v>-4.420384309365673</v>
+        <v>-4.282746985468965</v>
       </c>
       <c r="E9">
-        <v>4.158811147958227</v>
+        <v>4.288317264014673</v>
       </c>
       <c r="F9">
-        <v>3.134708136443898</v>
+        <v>1.609357709309478</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="B10">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="C10">
-        <v>-0.09732842917200657</v>
+        <v>-0.06358173239707426</v>
       </c>
       <c r="D10">
-        <v>-4.387943499857529</v>
+        <v>-4.348733315743322</v>
       </c>
       <c r="E10">
-        <v>4.193286641513516</v>
+        <v>4.221569850949173</v>
       </c>
       <c r="F10">
-        <v>-1.006674260980489</v>
+        <v>-0.4966897628337463</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="B11">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.05758053705132984</v>
+        <v>0.03160551430947847</v>
       </c>
       <c r="D11">
-        <v>-4.232346905181885</v>
+        <v>-4.252751824860016</v>
       </c>
       <c r="E11">
-        <v>4.347507979284545</v>
+        <v>4.315962853478973</v>
       </c>
       <c r="F11">
-        <v>1.734931019724151</v>
+        <v>1.564461714751708</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="B12">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.07882785746192522</v>
+        <v>-0.06749209980729759</v>
       </c>
       <c r="D12">
-        <v>-4.368412384219863</v>
+        <v>-4.351429452272552</v>
       </c>
       <c r="E12">
-        <v>4.210756669296013</v>
+        <v>4.216445252657958</v>
       </c>
       <c r="F12">
-        <v>-1.434589497026728</v>
+        <v>0.4618945856293522</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="B13">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.07154947042620258</v>
+        <v>-0.005197345166944825</v>
       </c>
       <c r="D13">
-        <v>-4.217523337374781</v>
+        <v>-4.288357337884404</v>
       </c>
       <c r="E13">
-        <v>4.360622278227187</v>
+        <v>4.277962647550515</v>
       </c>
       <c r="F13">
-        <v>0.9226659757088029</v>
+        <v>-0.7072934817861309</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="B14">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.05007366095479257</v>
+        <v>0.02873144061992008</v>
       </c>
       <c r="D14">
-        <v>-4.338442228423963</v>
+        <v>-4.253688423992687</v>
       </c>
       <c r="E14">
-        <v>4.238294906514378</v>
+        <v>4.311151305232526</v>
       </c>
       <c r="F14">
-        <v>0.5119235213179252</v>
+        <v>-2.571688800512995</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B15">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.01068017574972406</v>
+        <v>0.09493617540930271</v>
       </c>
       <c r="D15">
-        <v>-4.298274248741298</v>
+        <v>-4.187827169204349</v>
       </c>
       <c r="E15">
-        <v>4.27691389724185</v>
+        <v>4.377699520022954</v>
       </c>
       <c r="F15">
-        <v>-0.8365991312048848</v>
+        <v>-2.467160440768268</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="B16">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.03505341068679599</v>
+        <v>0.07699603242693515</v>
       </c>
       <c r="D16">
-        <v>-4.251830068623438</v>
+        <v>-4.206075855371631</v>
       </c>
       <c r="E16">
-        <v>4.321936889997031</v>
+        <v>4.360067920225501</v>
       </c>
       <c r="F16">
-        <v>-2.413721129867241</v>
+        <v>-0.7782140442055052</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="B17">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="C17">
-        <v>0.08813498545005022</v>
+        <v>0.01496778016758948</v>
       </c>
       <c r="D17">
-        <v>-4.198958359648293</v>
+        <v>-4.267405911992005</v>
       </c>
       <c r="E17">
-        <v>4.375228330548394</v>
+        <v>4.297341472327184</v>
       </c>
       <c r="F17">
-        <v>-0.6405814969875578</v>
+        <v>0.2600781700056842</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="B18">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="C18">
-        <v>0.008366278707843539</v>
+        <v>-0.01290829107892055</v>
       </c>
       <c r="D18">
-        <v>-4.277990913750599</v>
+        <v>-4.294468430554096</v>
       </c>
       <c r="E18">
-        <v>4.294723471166285</v>
+        <v>4.268651848396255</v>
       </c>
       <c r="F18">
-        <v>-0.1118255637917898</v>
+        <v>-0.05773672215809711</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="B19">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.002785139272854335</v>
+        <v>0.004730567359824236</v>
       </c>
       <c r="D19">
-        <v>-4.282746985468965</v>
+        <v>-4.276006462559732</v>
       </c>
       <c r="E19">
-        <v>4.288317264014673</v>
+        <v>4.285467597279381</v>
       </c>
       <c r="F19">
-        <v>1.609357709309478</v>
+        <v>0.6619681677543454</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="B20">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.06358173239707426</v>
+        <v>-0.02635703166524328</v>
       </c>
       <c r="D20">
-        <v>-4.348733315743322</v>
+        <v>-4.306345607110757</v>
       </c>
       <c r="E20">
-        <v>4.221569850949173</v>
+        <v>4.253631543780269</v>
       </c>
       <c r="F20">
-        <v>-0.4966897628337463</v>
+        <v>1.678321288626172</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="B21">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.03160551430947847</v>
+        <v>-0.05921898301041661</v>
       </c>
       <c r="D21">
-        <v>-4.252751824860016</v>
+        <v>-4.338886311476867</v>
       </c>
       <c r="E21">
-        <v>4.315962853478973</v>
+        <v>4.220448345456034</v>
       </c>
       <c r="F21">
-        <v>1.564461714751708</v>
+        <v>-2.109542310444112</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="B22">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="C22">
-        <v>-0.06749209980729759</v>
+        <v>0.09293764038713737</v>
       </c>
       <c r="D22">
-        <v>-4.351429452272552</v>
+        <v>-4.186632313280909</v>
       </c>
       <c r="E22">
-        <v>4.216445252657958</v>
+        <v>4.372507594055183</v>
       </c>
       <c r="F22">
-        <v>0.4618945856293522</v>
+        <v>-1.304933697772093</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="B23">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="C23">
-        <v>-0.005197345166944825</v>
+        <v>0.03225303772242077</v>
       </c>
       <c r="D23">
-        <v>-4.288357337884404</v>
+        <v>-4.246831880321432</v>
       </c>
       <c r="E23">
-        <v>4.277962647550515</v>
+        <v>4.311337955766273</v>
       </c>
       <c r="F23">
-        <v>-0.7072934817861309</v>
+        <v>1.391326791698511</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="B24">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.02873144061992008</v>
+        <v>-0.05979411190395811</v>
       </c>
       <c r="D24">
-        <v>-4.253688423992687</v>
+        <v>-4.338375943133901</v>
       </c>
       <c r="E24">
-        <v>4.311151305232526</v>
+        <v>4.218787719325984</v>
       </c>
       <c r="F24">
-        <v>-2.571688800512995</v>
+        <v>-1.683639189258912</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="B25">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.09493617540930271</v>
+        <v>0.07647113965895813</v>
       </c>
       <c r="D25">
-        <v>-4.187827169204349</v>
+        <v>-4.201743957076057</v>
       </c>
       <c r="E25">
-        <v>4.377699520022954</v>
+        <v>4.354686236393973</v>
       </c>
       <c r="F25">
-        <v>-2.467160440768268</v>
+        <v>-0.882099221538013</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="B26">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.07699603242693515</v>
+        <v>0.01954850202410471</v>
       </c>
       <c r="D26">
-        <v>-4.206075855371631</v>
+        <v>-4.258004259161618</v>
       </c>
       <c r="E26">
-        <v>4.360067920225501</v>
+        <v>4.297101263209827</v>
       </c>
       <c r="F26">
-        <v>-0.7782140442055052</v>
+        <v>2.248598170934102</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="B27">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.01496778016758948</v>
+        <v>-0.09056321312535454</v>
       </c>
       <c r="D27">
-        <v>-4.267405911992005</v>
+        <v>-4.368151356296451</v>
       </c>
       <c r="E27">
-        <v>4.297341472327184</v>
+        <v>4.187024930045743</v>
       </c>
       <c r="F27">
-        <v>0.2600781700056842</v>
+        <v>-1.278715476312087</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="B28">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="C28">
-        <v>-0.01290829107892055</v>
+        <v>0.06657989504261472</v>
       </c>
       <c r="D28">
-        <v>-4.294468430554096</v>
+        <v>-4.210431280177964</v>
       </c>
       <c r="E28">
-        <v>4.268651848396255</v>
+        <v>4.343591070263194</v>
       </c>
       <c r="F28">
-        <v>-0.05773672215809711</v>
+        <v>0.1461347622331743</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="B29">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="C29">
-        <v>0.004730567359824236</v>
+        <v>-0.01804890925016561</v>
       </c>
       <c r="D29">
-        <v>-4.276006462559732</v>
+        <v>-4.294241738945526</v>
       </c>
       <c r="E29">
-        <v>4.285467597279381</v>
+        <v>4.258143920445195</v>
       </c>
       <c r="F29">
-        <v>0.6619681677543454</v>
+        <v>1.937876984340292</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="B30">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.02635703166524328</v>
+        <v>-0.07194996223052474</v>
       </c>
       <c r="D30">
-        <v>-4.306345607110757</v>
+        <v>-4.347982078622498</v>
       </c>
       <c r="E30">
-        <v>4.253631543780269</v>
+        <v>4.204082154161449</v>
       </c>
       <c r="F30">
-        <v>1.678321288626172</v>
+        <v>-0.1146460429385598</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="B31">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.05921898301041661</v>
+        <v>0.01763148222557741</v>
       </c>
       <c r="D31">
-        <v>-4.338886311476867</v>
+        <v>-4.257582333707646</v>
       </c>
       <c r="E31">
-        <v>4.220448345456034</v>
+        <v>4.292845298158801</v>
       </c>
       <c r="F31">
-        <v>-2.109542310444112</v>
+        <v>1.959454995814447</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="B32">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.09293764038713737</v>
+        <v>-0.07945650373065882</v>
       </c>
       <c r="D32">
-        <v>-4.186632313280909</v>
+        <v>-4.354500463105139</v>
       </c>
       <c r="E32">
-        <v>4.372507594055183</v>
+        <v>4.195587455643822</v>
       </c>
       <c r="F32">
-        <v>-1.304933697772093</v>
+        <v>1.035119047972444</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="B33">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.03225303772242077</v>
+        <v>-0.02543831906005301</v>
       </c>
       <c r="D33">
-        <v>-4.246831880321432</v>
+        <v>-4.299878005114754</v>
       </c>
       <c r="E33">
-        <v>4.311337955766273</v>
+        <v>4.249001366994647</v>
       </c>
       <c r="F33">
-        <v>1.391326791698511</v>
+        <v>-3.974408972352705</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="B34">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.05979411190395811</v>
+        <v>0.159477249863255</v>
       </c>
       <c r="D34">
-        <v>-4.338375943133901</v>
+        <v>-4.116824267135689</v>
       </c>
       <c r="E34">
-        <v>4.218787719325984</v>
+        <v>4.4357787668622</v>
       </c>
       <c r="F34">
-        <v>-1.683639189258912</v>
+        <v>-1.135879403560658</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="B35">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.07647113965895813</v>
+        <v>0.01542425939379535</v>
       </c>
       <c r="D35">
-        <v>-4.201743957076057</v>
+        <v>-4.260347654355737</v>
       </c>
       <c r="E35">
-        <v>4.354686236393973</v>
+        <v>4.291196173143328</v>
       </c>
       <c r="F35">
-        <v>-0.882099221538013</v>
+        <v>-0.3227228853479147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="B36">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.01954850202410471</v>
+        <v>0.009673267251379701</v>
       </c>
       <c r="D36">
-        <v>-4.258004259161618</v>
+        <v>-4.26530123721709</v>
       </c>
       <c r="E36">
-        <v>4.297101263209827</v>
+        <v>4.284647771719849</v>
       </c>
       <c r="F36">
-        <v>2.248598170934102</v>
+        <v>-0.707758778661649</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="B37">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="C37">
-        <v>-0.09056321312535454</v>
+        <v>0.02551114618140149</v>
       </c>
       <c r="D37">
-        <v>-4.368151356296451</v>
+        <v>-4.248735181623736</v>
       </c>
       <c r="E37">
-        <v>4.187024930045743</v>
+        <v>4.299757473986539</v>
       </c>
       <c r="F37">
-        <v>-1.278715476312087</v>
+        <v>0.4723953278507054</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="B38">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.06657989504261472</v>
+        <v>-0.0228048044363053</v>
       </c>
       <c r="D38">
-        <v>-4.210431280177964</v>
+        <v>-4.296269321042847</v>
       </c>
       <c r="E38">
-        <v>4.343591070263194</v>
+        <v>4.250659712170237</v>
       </c>
       <c r="F38">
-        <v>0.1461347622331743</v>
+        <v>-0.2063984220852078</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="B39">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="C39">
-        <v>-0.01804890925016561</v>
+        <v>0.01206822134238757</v>
       </c>
       <c r="D39">
-        <v>-4.294241738945526</v>
+        <v>-4.260586451117883</v>
       </c>
       <c r="E39">
-        <v>4.258143920445195</v>
+        <v>4.284722893802657</v>
       </c>
       <c r="F39">
-        <v>1.937876984340292</v>
+        <v>1.813445425346139</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="B40">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.07194996223052474</v>
+        <v>-0.07214685054751518</v>
       </c>
       <c r="D40">
-        <v>-4.347982078622498</v>
+        <v>-4.344542971388992</v>
       </c>
       <c r="E40">
-        <v>4.204082154161449</v>
+        <v>4.200249270293962</v>
       </c>
       <c r="F40">
-        <v>-0.1146460429385598</v>
+        <v>-2.673092041311342</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="B41">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="C41">
-        <v>0.01763148222557741</v>
+        <v>0.1174273633896393</v>
       </c>
       <c r="D41">
-        <v>-4.257582333707646</v>
+        <v>-4.155313614895429</v>
       </c>
       <c r="E41">
-        <v>4.292845298158801</v>
+        <v>4.390168341674708</v>
       </c>
       <c r="F41">
-        <v>1.959454995814447</v>
+        <v>1.682696529616834</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="B42">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="C42">
-        <v>-0.07945650373065882</v>
+        <v>-0.08772193265816192</v>
       </c>
       <c r="D42">
-        <v>-4.354500463105139</v>
+        <v>-4.360067993745517</v>
       </c>
       <c r="E42">
-        <v>4.195587455643822</v>
+        <v>4.184624128429194</v>
       </c>
       <c r="F42">
-        <v>1.035119047972444</v>
+        <v>-1.891309330648738</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="B43">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.02543831906005301</v>
+        <v>0.09131456928223192</v>
       </c>
       <c r="D43">
-        <v>-4.299878005114754</v>
+        <v>-4.180774259049557</v>
       </c>
       <c r="E43">
-        <v>4.249001366994647</v>
+        <v>4.363403397614021</v>
       </c>
       <c r="F43">
-        <v>-3.974408972352705</v>
+        <v>-1.502883712189984</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="B44">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.159477249863255</v>
+        <v>0.04250997088664077</v>
       </c>
       <c r="D44">
-        <v>-4.116824267135689</v>
+        <v>-4.229200308796452</v>
       </c>
       <c r="E44">
-        <v>4.4357787668622</v>
+        <v>4.314220250569734</v>
       </c>
       <c r="F44">
-        <v>-1.135879403560658</v>
+        <v>-1.157490839607611</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="B45">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="C45">
-        <v>0.01542425939379535</v>
+        <v>0.03755211357674515</v>
       </c>
       <c r="D45">
-        <v>-4.260347654355737</v>
+        <v>-4.23359120555618</v>
       </c>
       <c r="E45">
-        <v>4.291196173143328</v>
+        <v>4.30869543270967</v>
       </c>
       <c r="F45">
-        <v>-0.3227228853479147</v>
+        <v>1.308799689779505</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="B46">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.009673267251379701</v>
+        <v>-0.05838752614488327</v>
       </c>
       <c r="D46">
-        <v>-4.26530123721709</v>
+        <v>-4.328994519420419</v>
       </c>
       <c r="E46">
-        <v>4.284647771719849</v>
+        <v>4.212219467130653</v>
       </c>
       <c r="F46">
-        <v>-0.707758778661649</v>
+        <v>-0.2422041753211701</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="B47">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.02551114618140149</v>
+        <v>0.02033039233970257</v>
       </c>
       <c r="D47">
-        <v>-4.248735181623736</v>
+        <v>-4.249469780835094</v>
       </c>
       <c r="E47">
-        <v>4.299757473986539</v>
+        <v>4.290130565514499</v>
       </c>
       <c r="F47">
-        <v>0.4723953278507054</v>
+        <v>0.7850281861372821</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="B48">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.0228048044363053</v>
+        <v>-0.03466480097690317</v>
       </c>
       <c r="D48">
-        <v>-4.296269321042847</v>
+        <v>-4.30375287952979</v>
       </c>
       <c r="E48">
-        <v>4.250659712170237</v>
+        <v>4.234423277575984</v>
       </c>
       <c r="F48">
-        <v>-0.2063984220852078</v>
+        <v>1.017363652233882</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="B49">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="C49">
-        <v>0.01206822134238757</v>
+        <v>-0.03358190297807939</v>
       </c>
       <c r="D49">
-        <v>-4.260586451117883</v>
+        <v>-4.302047675938268</v>
       </c>
       <c r="E49">
-        <v>4.284722893802657</v>
+        <v>4.234883869982109</v>
       </c>
       <c r="F49">
-        <v>1.813445425346139</v>
+        <v>-3.083678433605996</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="B50">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.07214685054751518</v>
+        <v>0.1279568672424193</v>
       </c>
       <c r="D50">
-        <v>-4.344542971388992</v>
+        <v>-4.141288769940012</v>
       </c>
       <c r="E50">
-        <v>4.200249270293962</v>
+        <v>4.39720250442485</v>
       </c>
       <c r="F50">
-        <v>-2.673092041311342</v>
+        <v>1.583950264537926</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="B51">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.1174273633896393</v>
+        <v>-0.08674229018766494</v>
       </c>
       <c r="D51">
-        <v>-4.155313614895429</v>
+        <v>-4.355538915220105</v>
       </c>
       <c r="E51">
-        <v>4.390168341674708</v>
+        <v>4.182054334844775</v>
       </c>
       <c r="F51">
-        <v>1.682696529616834</v>
+        <v>0.4221960432982286</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="B52">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.08772193265816192</v>
+        <v>-0.001050534282219281</v>
       </c>
       <c r="D52">
-        <v>-4.360067993745517</v>
+        <v>-4.269080740972268</v>
       </c>
       <c r="E52">
-        <v>4.184624128429194</v>
+        <v>4.266979672407829</v>
       </c>
       <c r="F52">
-        <v>-1.891309330648738</v>
+        <v>-0.6339643874520462</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="B53">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.09131456928223192</v>
+        <v>0.02543435175693132</v>
       </c>
       <c r="D53">
-        <v>-4.180774259049557</v>
+        <v>-4.241854078705245</v>
       </c>
       <c r="E53">
-        <v>4.363403397614021</v>
+        <v>4.292722782219107</v>
       </c>
       <c r="F53">
-        <v>-1.502883712189984</v>
+        <v>1.383480712929241</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="B54">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.04250997088664077</v>
+        <v>-0.05980264415421055</v>
       </c>
       <c r="D54">
-        <v>-4.229200308796452</v>
+        <v>-4.32659635948287</v>
       </c>
       <c r="E54">
-        <v>4.314220250569734</v>
+        <v>4.206991071174449</v>
       </c>
       <c r="F54">
-        <v>-1.157490839607611</v>
+        <v>-0.4490353301626726</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="B55">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.03755211357674515</v>
+        <v>0.0287120674729397</v>
       </c>
       <c r="D55">
-        <v>-4.23359120555618</v>
+        <v>-4.237298114841457</v>
       </c>
       <c r="E55">
-        <v>4.30869543270967</v>
+        <v>4.294722249787337</v>
       </c>
       <c r="F55">
-        <v>1.308799689779505</v>
+        <v>1.518564241837339</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="B56">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="C56">
-        <v>-0.05838752614488327</v>
+        <v>-0.06594257721664998</v>
       </c>
       <c r="D56">
-        <v>-4.328994519420419</v>
+        <v>-4.331522767452604</v>
       </c>
       <c r="E56">
-        <v>4.212219467130653</v>
+        <v>4.199637613019304</v>
       </c>
       <c r="F56">
-        <v>-0.2422041753211701</v>
+        <v>-0.02955519454044264</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="B57">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.02033039233970257</v>
+        <v>0.0131673571361252</v>
       </c>
       <c r="D57">
-        <v>-4.249469780835094</v>
+        <v>-4.251604496064611</v>
       </c>
       <c r="E57">
-        <v>4.290130565514499</v>
+        <v>4.277939210336862</v>
       </c>
       <c r="F57">
-        <v>0.7850281861372821</v>
+        <v>0.8242613637937879</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="B58">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="C58">
-        <v>-0.03466480097690317</v>
+        <v>-0.03537017211369736</v>
       </c>
       <c r="D58">
-        <v>-4.30375287952979</v>
+        <v>-4.299446173493646</v>
       </c>
       <c r="E58">
-        <v>4.234423277575984</v>
+        <v>4.228705829266252</v>
       </c>
       <c r="F58">
-        <v>1.017363652233882</v>
+        <v>0.1171989586243427</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="B59">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.03358190297807939</v>
+        <v>0.001773179433478791</v>
       </c>
       <c r="D59">
-        <v>-4.302047675938268</v>
+        <v>-4.261499130587128</v>
       </c>
       <c r="E59">
-        <v>4.234883869982109</v>
+        <v>4.265045489454086</v>
       </c>
       <c r="F59">
-        <v>-3.083678433605996</v>
+        <v>-1.267145288314353</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="B60">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.1279568672424193</v>
+        <v>0.05038768118811562</v>
       </c>
       <c r="D60">
-        <v>-4.141288769940012</v>
+        <v>-4.212352171187723</v>
       </c>
       <c r="E60">
-        <v>4.39720250442485</v>
+        <v>4.313127533563954</v>
       </c>
       <c r="F60">
-        <v>1.583950264537926</v>
+        <v>-0.4756251534649536</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="B61">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="C61">
-        <v>-0.08674229018766494</v>
+        <v>0.009837340443454107</v>
       </c>
       <c r="D61">
-        <v>-4.355538915220105</v>
+        <v>-4.252142894443106</v>
       </c>
       <c r="E61">
-        <v>4.182054334844775</v>
+        <v>4.271817575330014</v>
       </c>
       <c r="F61">
-        <v>0.4221960432982286</v>
+        <v>1.155397240570011</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="B62">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="C62">
-        <v>-0.001050534282219281</v>
+        <v>-0.04794689682024869</v>
       </c>
       <c r="D62">
-        <v>-4.269080740972268</v>
+        <v>-4.309344607753189</v>
       </c>
       <c r="E62">
-        <v>4.266979672407829</v>
+        <v>4.213450814112692</v>
       </c>
       <c r="F62">
-        <v>-0.6339643874520462</v>
+        <v>0.4994868618773296</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="B63">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.02543435175693132</v>
+        <v>-0.01126447059175158</v>
       </c>
       <c r="D63">
-        <v>-4.241854078705245</v>
+        <v>-4.271907339600677</v>
       </c>
       <c r="E63">
-        <v>4.292722782219107</v>
+        <v>4.249378398417173</v>
       </c>
       <c r="F63">
-        <v>1.383480712929241</v>
+        <v>2.917174365425623</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="B64">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="C64">
-        <v>-0.05980264415421055</v>
+        <v>-0.1141012689818288</v>
       </c>
       <c r="D64">
-        <v>-4.32659635948287</v>
+        <v>-4.375400206046453</v>
       </c>
       <c r="E64">
-        <v>4.206991071174449</v>
+        <v>4.147197668082796</v>
       </c>
       <c r="F64">
-        <v>-0.4490353301626726</v>
+        <v>0.08536065392412695</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="B65">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.0287120674729397</v>
+        <v>0.01752754326239174</v>
       </c>
       <c r="D65">
-        <v>-4.237298114841457</v>
+        <v>-4.242972861393793</v>
       </c>
       <c r="E65">
-        <v>4.294722249787337</v>
+        <v>4.278027947918576</v>
       </c>
       <c r="F65">
-        <v>1.518564241837339</v>
+        <v>-1.201731200401746</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="B66">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="C66">
-        <v>-0.06594257721664998</v>
+        <v>0.04462568839699196</v>
       </c>
       <c r="D66">
-        <v>-4.331522767452604</v>
+        <v>-4.215323127386727</v>
       </c>
       <c r="E66">
-        <v>4.199637613019304</v>
+        <v>4.30457450418071</v>
       </c>
       <c r="F66">
-        <v>-0.02955519454044264</v>
+        <v>-0.1152073860145819</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="B67">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="C67">
-        <v>0.0131673571361252</v>
+        <v>-0.003525185147475147</v>
       </c>
       <c r="D67">
-        <v>-4.251604496064611</v>
+        <v>-4.262673902020095</v>
       </c>
       <c r="E67">
-        <v>4.277939210336862</v>
+        <v>4.255623531725146</v>
       </c>
       <c r="F67">
-        <v>0.8242613637937879</v>
+        <v>-1.101141233305114</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="B68">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.03537017211369736</v>
+        <v>0.04439785961613421</v>
       </c>
       <c r="D68">
-        <v>-4.299446173493646</v>
+        <v>-4.214151977308349</v>
       </c>
       <c r="E68">
-        <v>4.228705829266252</v>
+        <v>4.302947696540617</v>
       </c>
       <c r="F68">
-        <v>0.1171989586243427</v>
+        <v>-0.8779687652046064</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="B69">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="C69">
-        <v>0.001773179433478791</v>
+        <v>0.02674017773485635</v>
       </c>
       <c r="D69">
-        <v>-4.261499130587128</v>
+        <v>-4.231150911068798</v>
       </c>
       <c r="E69">
-        <v>4.265045489454086</v>
+        <v>4.28463126653851</v>
       </c>
       <c r="F69">
-        <v>-1.267145288314353</v>
+        <v>-0.05880623515537309</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="B70">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.05038768118811562</v>
+        <v>-0.002542499054615352</v>
       </c>
       <c r="D70">
-        <v>-4.212352171187723</v>
+        <v>-4.25963168311643</v>
       </c>
       <c r="E70">
-        <v>4.313127533563954</v>
+        <v>4.254546685007199</v>
       </c>
       <c r="F70">
-        <v>-0.4756251534649536</v>
+        <v>-1.00503358535029</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="B71">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.009837340443454107</v>
+        <v>0.04031870035480434</v>
       </c>
       <c r="D71">
-        <v>-4.252142894443106</v>
+        <v>-4.216138791706847</v>
       </c>
       <c r="E71">
-        <v>4.271817575330014</v>
+        <v>4.296776192416456</v>
       </c>
       <c r="F71">
-        <v>1.155397240570011</v>
+        <v>-1.52674721307875</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="B72">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="C72">
-        <v>-0.04794689682024869</v>
+        <v>0.05301563410033083</v>
       </c>
       <c r="D72">
-        <v>-4.309344607753189</v>
+        <v>-4.203057331533082</v>
       </c>
       <c r="E72">
-        <v>4.213450814112692</v>
+        <v>4.309088599733744</v>
       </c>
       <c r="F72">
-        <v>0.4994868618773296</v>
+        <v>-1.887997614661252</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="B73">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.01126447059175158</v>
+        <v>0.06453684471462257</v>
       </c>
       <c r="D73">
-        <v>-4.271907339600677</v>
+        <v>-4.191374811787227</v>
       </c>
       <c r="E73">
-        <v>4.249378398417173</v>
+        <v>4.320448501216472</v>
       </c>
       <c r="F73">
-        <v>2.917174365425623</v>
+        <v>0.1842752364211719</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="B74">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.1141012689818288</v>
+        <v>-0.01913747221777169</v>
       </c>
       <c r="D74">
-        <v>-4.375400206046453</v>
+        <v>-4.274250002285773</v>
       </c>
       <c r="E74">
-        <v>4.147197668082796</v>
+        <v>4.23597505785023</v>
       </c>
       <c r="F74">
-        <v>0.08536065392412695</v>
+        <v>-0.3688906734716113</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="B75">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.01752754326239174</v>
+        <v>0.01806700148804806</v>
       </c>
       <c r="D75">
-        <v>-4.242972861393793</v>
+        <v>-4.236265196041214</v>
       </c>
       <c r="E75">
-        <v>4.278027947918576</v>
+        <v>4.27239919901731</v>
       </c>
       <c r="F75">
-        <v>-1.201731200401746</v>
+        <v>-1.52058787089473</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="B76">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.04462568839699196</v>
+        <v>0.05645349587796566</v>
       </c>
       <c r="D76">
-        <v>-4.215323127386727</v>
+        <v>-4.197480395816586</v>
       </c>
       <c r="E76">
-        <v>4.30457450418071</v>
+        <v>4.310387387572518</v>
       </c>
       <c r="F76">
-        <v>-0.1152073860145819</v>
+        <v>-1.957751192360035</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="B77">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.003525185147475147</v>
+        <v>0.06612178481389314</v>
       </c>
       <c r="D77">
-        <v>-4.262673902020095</v>
+        <v>-4.187700953128335</v>
       </c>
       <c r="E77">
-        <v>4.255623531725146</v>
+        <v>4.319944522756121</v>
       </c>
       <c r="F77">
-        <v>-1.101141233305114</v>
+        <v>1.235952985649291</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="B78">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C78">
-        <v>0.04439785961613421</v>
+        <v>-0.06069761790143677</v>
       </c>
       <c r="D78">
-        <v>-4.214151977308349</v>
+        <v>-4.313952782712941</v>
       </c>
       <c r="E78">
-        <v>4.302947696540617</v>
+        <v>4.192557546910067</v>
       </c>
       <c r="F78">
-        <v>-0.8779687652046064</v>
+        <v>-0.6319136351477184</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="B79">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="C79">
-        <v>0.02674017773485635</v>
+        <v>0.03602752909824317</v>
       </c>
       <c r="D79">
-        <v>-4.231150911068798</v>
+        <v>-4.216483448646196</v>
       </c>
       <c r="E79">
-        <v>4.28463126653851</v>
+        <v>4.288538506842682</v>
       </c>
       <c r="F79">
-        <v>-0.05880623515537309</v>
+        <v>3.518968100457975</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="B80">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C80">
-        <v>-0.002542499054615352</v>
+        <v>-0.1458494584837433</v>
       </c>
       <c r="D80">
-        <v>-4.25963168311643</v>
+        <v>-4.399619921429732</v>
       </c>
       <c r="E80">
-        <v>4.254546685007199</v>
+        <v>4.107921004462245</v>
       </c>
       <c r="F80">
-        <v>-1.00503358535029</v>
+        <v>1.999460733084568</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="B81">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.04031870035480434</v>
+        <v>-0.05094997871619994</v>
       </c>
       <c r="D81">
-        <v>-4.216138791706847</v>
+        <v>-4.30470145568979</v>
       </c>
       <c r="E81">
-        <v>4.296776192416456</v>
+        <v>4.20280149825739</v>
       </c>
       <c r="F81">
-        <v>-1.52674721307875</v>
+        <v>1.222253999589107</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="B82">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.05301563410033083</v>
+        <v>-0.0378131505873171</v>
       </c>
       <c r="D82">
-        <v>-4.203057331533082</v>
+        <v>-4.291040540668894</v>
       </c>
       <c r="E82">
-        <v>4.309088599733744</v>
+        <v>4.215414239494261</v>
       </c>
       <c r="F82">
-        <v>-1.887997614661252</v>
+        <v>5.589012018352868</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="B83">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="C83">
-        <v>0.06453684471462257</v>
+        <v>-0.2071042065227879</v>
       </c>
       <c r="D83">
-        <v>-4.191374811787227</v>
+        <v>-4.46489765724521</v>
       </c>
       <c r="E83">
-        <v>4.320448501216472</v>
+        <v>4.050689244199633</v>
       </c>
       <c r="F83">
-        <v>0.1842752364211719</v>
+        <v>-1.923680253549342</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="B84">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.01913747221777169</v>
+        <v>0.1152944678320436</v>
       </c>
       <c r="D84">
-        <v>-4.274250002285773</v>
+        <v>-4.142197857758211</v>
       </c>
       <c r="E84">
-        <v>4.23597505785023</v>
+        <v>4.372786793422298</v>
       </c>
       <c r="F84">
-        <v>-0.3688906734716113</v>
+        <v>0.8249228972676548</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="B85">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.01806700148804806</v>
+        <v>-0.05469436519703075</v>
       </c>
       <c r="D85">
-        <v>-4.236265196041214</v>
+        <v>-4.311473180791533</v>
       </c>
       <c r="E85">
-        <v>4.27239919901731</v>
+        <v>4.202084450397472</v>
       </c>
       <c r="F85">
-        <v>-1.52058787089473</v>
+        <v>0.02832460010431248</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="B86">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.05645349587796566</v>
+        <v>0.009429390782824461</v>
       </c>
       <c r="D86">
-        <v>-4.197480395816586</v>
+        <v>-4.246552476424225</v>
       </c>
       <c r="E86">
-        <v>4.310387387572518</v>
+        <v>4.265411257989874</v>
       </c>
       <c r="F86">
-        <v>-1.957751192360035</v>
+        <v>-2.727311282423983</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="B87">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="C87">
-        <v>0.06612178481389314</v>
+        <v>0.1050457027582505</v>
       </c>
       <c r="D87">
-        <v>-4.187700953128335</v>
+        <v>-4.151405473683616</v>
       </c>
       <c r="E87">
-        <v>4.319944522756121</v>
+        <v>4.361496879200117</v>
       </c>
       <c r="F87">
-        <v>1.235952985649291</v>
+        <v>-1.524956237803288</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="B88">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.06069761790143677</v>
+        <v>0.03939169451975644</v>
       </c>
       <c r="D88">
-        <v>-4.313952782712941</v>
+        <v>-4.216711054731698</v>
       </c>
       <c r="E88">
-        <v>4.192557546910067</v>
+        <v>4.295494443771211</v>
       </c>
       <c r="F88">
-        <v>-0.6319136351477184</v>
+        <v>-1.578588253243396</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="B89">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="C89">
-        <v>0.03602752909824317</v>
+        <v>0.05355450643166582</v>
       </c>
       <c r="D89">
-        <v>-4.216483448646196</v>
+        <v>-4.202193498312653</v>
       </c>
       <c r="E89">
-        <v>4.288538506842682</v>
+        <v>4.309302511175984</v>
       </c>
       <c r="F89">
-        <v>3.518968100457975</v>
+        <v>1.726233341337213</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="B90">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.1458494584837433</v>
+        <v>-0.07735205404127904</v>
       </c>
       <c r="D90">
-        <v>-4.399619921429732</v>
+        <v>-4.332776114888499</v>
       </c>
       <c r="E90">
-        <v>4.107921004462245</v>
+        <v>4.17807200680594</v>
       </c>
       <c r="F90">
-        <v>1.999460733084568</v>
+        <v>0.3534613400145048</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="B91">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="C91">
-        <v>-0.05094997871619994</v>
+        <v>0.001142227608750421</v>
       </c>
       <c r="D91">
-        <v>-4.30470145568979</v>
+        <v>-4.253516827087616</v>
       </c>
       <c r="E91">
-        <v>4.20280149825739</v>
+        <v>4.255801282305117</v>
       </c>
       <c r="F91">
-        <v>1.222253999589107</v>
+        <v>-2.591358702068725</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="B92">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="C92">
-        <v>-0.0378131505873171</v>
+        <v>0.1003977820025135</v>
       </c>
       <c r="D92">
-        <v>-4.291040540668894</v>
+        <v>-4.154600530070842</v>
       </c>
       <c r="E92">
-        <v>4.215414239494261</v>
+        <v>4.355396094075869</v>
       </c>
       <c r="F92">
-        <v>5.589012018352868</v>
+        <v>0.6616565492128856</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="B93">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.2071042065227879</v>
+        <v>-0.04470928293728454</v>
       </c>
       <c r="D93">
-        <v>-4.46489765724521</v>
+        <v>-4.298965051389656</v>
       </c>
       <c r="E93">
-        <v>4.050689244199633</v>
+        <v>4.209546485515087</v>
       </c>
       <c r="F93">
-        <v>-1.923680253549342</v>
+        <v>-1.388491971922079</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="B94">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="C94">
-        <v>0.1152944678320436</v>
+        <v>0.06282574597632062</v>
       </c>
       <c r="D94">
-        <v>-4.142197857758211</v>
+        <v>-4.190939448598243</v>
       </c>
       <c r="E94">
-        <v>4.372786793422298</v>
+        <v>4.316590940550885</v>
       </c>
       <c r="F94">
-        <v>0.8249228972676548</v>
+        <v>0.3640780720656878</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="B95">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="C95">
-        <v>-0.05469436519703075</v>
+        <v>-0.02616546888247162</v>
       </c>
       <c r="D95">
-        <v>-4.311473180791533</v>
+        <v>-4.279151101375145</v>
       </c>
       <c r="E95">
-        <v>4.202084450397472</v>
+        <v>4.226820163610203</v>
       </c>
       <c r="F95">
-        <v>0.02832460010431248</v>
+        <v>2.364317822781281</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="B96">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.009429390782824461</v>
+        <v>-0.08722538485943987</v>
       </c>
       <c r="D96">
-        <v>-4.246552476424225</v>
+        <v>-4.340380732016382</v>
       </c>
       <c r="E96">
-        <v>4.265411257989874</v>
+        <v>4.165929962297503</v>
       </c>
       <c r="F96">
-        <v>-2.727311282423983</v>
+        <v>1.088406096764949</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="B97">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="C97">
-        <v>0.1050457027582505</v>
+        <v>-0.02579310051132244</v>
       </c>
       <c r="D97">
-        <v>-4.151405473683616</v>
+        <v>-4.27838729714797</v>
       </c>
       <c r="E97">
-        <v>4.361496879200117</v>
+        <v>4.226801096125326</v>
       </c>
       <c r="F97">
-        <v>-1.524956237803288</v>
+        <v>1.567521210470524</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="B98">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.03939169451975644</v>
+        <v>-0.05573102178875944</v>
       </c>
       <c r="D98">
-        <v>-4.216711054731698</v>
+        <v>-4.307959414580942</v>
       </c>
       <c r="E98">
-        <v>4.295494443771211</v>
+        <v>4.196497371003424</v>
       </c>
       <c r="F98">
-        <v>-1.578588253243396</v>
+        <v>-0.9259325412797281</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="B99">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.05355450643166582</v>
+        <v>0.04651118453574257</v>
       </c>
       <c r="D99">
-        <v>-4.202193498312653</v>
+        <v>-4.205051444498584</v>
       </c>
       <c r="E99">
-        <v>4.309302511175984</v>
+        <v>4.29807381357007</v>
       </c>
       <c r="F99">
-        <v>1.726233341337213</v>
+        <v>1.213536996069031</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="B100">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.07735205404127904</v>
+        <v>-0.05606267553936525</v>
       </c>
       <c r="D100">
-        <v>-4.332776114888499</v>
+        <v>-4.307061794883058</v>
       </c>
       <c r="E100">
-        <v>4.17807200680594</v>
+        <v>4.194936443804327</v>
       </c>
       <c r="F100">
-        <v>0.3534613400145048</v>
+        <v>2.831446229252244</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="B101">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.001142227608750421</v>
+        <v>-0.09868784349743587</v>
       </c>
       <c r="D101">
-        <v>-4.253516827087616</v>
+        <v>-4.350298944832758</v>
       </c>
       <c r="E101">
-        <v>4.255801282305117</v>
+        <v>4.152923257837887</v>
       </c>
       <c r="F101">
-        <v>-2.591358702068725</v>
+        <v>-0.6722714394877372</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="B102">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.1003977820025135</v>
+        <v>0.04472518604649695</v>
       </c>
       <c r="D102">
-        <v>-4.154600530070842</v>
+        <v>-4.206148913707402</v>
       </c>
       <c r="E102">
-        <v>4.355396094075869</v>
+        <v>4.295599285800396</v>
       </c>
       <c r="F102">
-        <v>0.6616565492128856</v>
+        <v>-0.2532715579283362</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="B103">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="C103">
-        <v>-0.04470928293728454</v>
+        <v>0.001373641272252778</v>
       </c>
       <c r="D103">
-        <v>-4.298965051389656</v>
+        <v>-4.248723453579011</v>
       </c>
       <c r="E103">
-        <v>4.209546485515087</v>
+        <v>4.251470736123517</v>
       </c>
       <c r="F103">
-        <v>-1.388491971922079</v>
+        <v>0.3937012959339015</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="B104">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="C104">
-        <v>0.06282574597632062</v>
+        <v>-0.01548925744706119</v>
       </c>
       <c r="D104">
-        <v>-4.190939448598243</v>
+        <v>-4.264820745610661</v>
       </c>
       <c r="E104">
-        <v>4.316590940550885</v>
+        <v>4.233842230716538</v>
       </c>
       <c r="F104">
-        <v>0.3640780720656878</v>
+        <v>3.502357142873791</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="B105">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="C105">
-        <v>-0.02616546888247162</v>
+        <v>-0.1321521004109774</v>
       </c>
       <c r="D105">
-        <v>-4.279151101375145</v>
+        <v>-4.382774947140227</v>
       </c>
       <c r="E105">
-        <v>4.226820163610203</v>
+        <v>4.118470746318273</v>
       </c>
       <c r="F105">
-        <v>2.364317822781281</v>
+        <v>-0.1355932411136962</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="B106">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.08722538485943987</v>
+        <v>0.03019369807414739</v>
       </c>
       <c r="D106">
-        <v>-4.340380732016382</v>
+        <v>-4.219638116583391</v>
       </c>
       <c r="E106">
-        <v>4.165929962297503</v>
+        <v>4.280025512731686</v>
       </c>
       <c r="F106">
-        <v>1.088406096764949</v>
+        <v>-0.4078863574820346</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="B107">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.02579310051132244</v>
+        <v>0.01006916838034998</v>
       </c>
       <c r="D107">
-        <v>-4.27838729714797</v>
+        <v>-4.239004344443908</v>
       </c>
       <c r="E107">
-        <v>4.226801096125326</v>
+        <v>4.259142681204608</v>
       </c>
       <c r="F107">
-        <v>1.567521210470524</v>
+        <v>0.3264420744407914</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="B108">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.05573102178875944</v>
+        <v>-0.014479892820324</v>
       </c>
       <c r="D108">
-        <v>-4.307959414580942</v>
+        <v>-4.262780080936091</v>
       </c>
       <c r="E108">
-        <v>4.196497371003424</v>
+        <v>4.233820295295443</v>
       </c>
       <c r="F108">
-        <v>-0.9259325412797281</v>
+        <v>-0.735998960914408</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="B109">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="C109">
-        <v>0.04651118453574257</v>
+        <v>0.03111342323956992</v>
       </c>
       <c r="D109">
-        <v>-4.205051444498584</v>
+        <v>-4.216484560666763</v>
       </c>
       <c r="E109">
-        <v>4.29807381357007</v>
+        <v>4.278711407145903</v>
       </c>
       <c r="F109">
-        <v>1.213536996069031</v>
+        <v>1.250696020227693</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="B110">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.05606267553936525</v>
+        <v>-0.05419193384597834</v>
       </c>
       <c r="D110">
-        <v>-4.307061794883058</v>
+        <v>-4.301250595436994</v>
       </c>
       <c r="E110">
-        <v>4.194936443804327</v>
+        <v>4.192866727745036</v>
       </c>
       <c r="F110">
-        <v>2.831446229252244</v>
+        <v>0.02701607472861411</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="B111">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="C111">
-        <v>-0.09868784349743587</v>
+        <v>0.009130305949605238</v>
       </c>
       <c r="D111">
-        <v>-4.350298944832758</v>
+        <v>-4.237140561158714</v>
       </c>
       <c r="E111">
-        <v>4.152923257837887</v>
+        <v>4.255401173057924</v>
       </c>
       <c r="F111">
-        <v>-0.6722714394877372</v>
+        <v>0.05401026326268266</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="B112">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="C112">
-        <v>0.04472518604649695</v>
+        <v>-0.003802161375162354</v>
       </c>
       <c r="D112">
-        <v>-4.206148913707402</v>
+        <v>-4.249284902325222</v>
       </c>
       <c r="E112">
-        <v>4.295599285800396</v>
+        <v>4.241680579574897</v>
       </c>
       <c r="F112">
-        <v>-0.2532715579283362</v>
+        <v>1.553741409490605</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="B113">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="C113">
-        <v>0.001373641272252778</v>
+        <v>-0.0593149142961355</v>
       </c>
       <c r="D113">
-        <v>-4.248723453579011</v>
+        <v>-4.30441710778771</v>
       </c>
       <c r="E113">
-        <v>4.251470736123517</v>
+        <v>4.18578727919544</v>
       </c>
       <c r="F113">
-        <v>0.3937012959339015</v>
+        <v>-0.6132534883862562</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="B114">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.01548925744706119</v>
+        <v>0.03486361984837857</v>
       </c>
       <c r="D114">
-        <v>-4.264820745610661</v>
+        <v>-4.209502435519268</v>
       </c>
       <c r="E114">
-        <v>4.233842230716538</v>
+        <v>4.279229675216025</v>
       </c>
       <c r="F114">
-        <v>3.502357142873791</v>
+        <v>0.2670941758799117</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="B115">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.1321521004109774</v>
+        <v>-0.01688073975171436</v>
       </c>
       <c r="D115">
-        <v>-4.382774947140227</v>
+        <v>-4.260468611642901</v>
       </c>
       <c r="E115">
-        <v>4.118470746318273</v>
+        <v>4.226707132139472</v>
       </c>
       <c r="F115">
-        <v>-0.1355932411136962</v>
+        <v>-1.045726113443202</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="B116">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.03019369807414739</v>
+        <v>0.04368793040202446</v>
       </c>
       <c r="D116">
-        <v>-4.219638116583391</v>
+        <v>-4.199290807029461</v>
       </c>
       <c r="E116">
-        <v>4.280025512731686</v>
+        <v>4.28666666783351</v>
       </c>
       <c r="F116">
-        <v>-0.4078863574820346</v>
+        <v>0.05389383046114915</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="B117">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="C117">
-        <v>0.01006916838034998</v>
+        <v>-0.01029689431919992</v>
       </c>
       <c r="D117">
-        <v>-4.239004344443908</v>
+        <v>-4.252489256979884</v>
       </c>
       <c r="E117">
-        <v>4.259142681204608</v>
+        <v>4.231895468341484</v>
       </c>
       <c r="F117">
-        <v>0.3264420744407914</v>
+        <v>-2.426840301101407</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="B118">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="C118">
-        <v>-0.014479892820324</v>
+        <v>0.0960503322577827</v>
       </c>
       <c r="D118">
-        <v>-4.262780080936091</v>
+        <v>-4.146335719861724</v>
       </c>
       <c r="E118">
-        <v>4.233820295295443</v>
+        <v>4.33843638437729</v>
       </c>
       <c r="F118">
-        <v>-0.735998960914408</v>
+        <v>1.994874186649653</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="B119">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="C119">
-        <v>0.03111342323956992</v>
+        <v>-0.09631962870330252</v>
       </c>
       <c r="D119">
-        <v>-4.216484560666763</v>
+        <v>-4.338524362676355</v>
       </c>
       <c r="E119">
-        <v>4.278711407145903</v>
+        <v>4.145885105269751</v>
       </c>
       <c r="F119">
-        <v>1.250696020227693</v>
+        <v>-2.077712794175746</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="B120">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.05419193384597834</v>
+        <v>0.1005968082566041</v>
       </c>
       <c r="D120">
-        <v>-4.301250595436994</v>
+        <v>-4.141480231197523</v>
       </c>
       <c r="E120">
-        <v>4.192866727745036</v>
+        <v>4.342673847710731</v>
       </c>
       <c r="F120">
-        <v>0.02701607472861411</v>
+        <v>-2.943450057505181</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="B121">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C121">
-        <v>0.009130305949605238</v>
+        <v>0.09601885553974798</v>
       </c>
       <c r="D121">
-        <v>-4.237140561158714</v>
+        <v>-4.146825257340544</v>
       </c>
       <c r="E121">
-        <v>4.255401173057924</v>
+        <v>4.338862968420041</v>
       </c>
       <c r="F121">
-        <v>0.05401026326268266</v>
+        <v>0.8498634721462395</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="B122">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.003802161375162354</v>
+        <v>-0.0512061556554182</v>
       </c>
       <c r="D122">
-        <v>-4.249284902325222</v>
+        <v>-4.293360524729203</v>
       </c>
       <c r="E122">
-        <v>4.241680579574897</v>
+        <v>4.190948213418367</v>
       </c>
       <c r="F122">
-        <v>1.553741409490605</v>
+        <v>0.6467054733672484</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="B123">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.0593149142961355</v>
+        <v>-0.01576577104191154</v>
       </c>
       <c r="D123">
-        <v>-4.30441710778771</v>
+        <v>-4.257217230146056</v>
       </c>
       <c r="E123">
-        <v>4.18578727919544</v>
+        <v>4.225685688062233</v>
       </c>
       <c r="F123">
-        <v>-0.6132534883862562</v>
+        <v>-1.240850664382975</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="B124">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="C124">
-        <v>0.03486361984837857</v>
+        <v>0.05140611888837721</v>
       </c>
       <c r="D124">
-        <v>-4.209502435519268</v>
+        <v>-4.189512580102955</v>
       </c>
       <c r="E124">
-        <v>4.279229675216025</v>
+        <v>4.29232481787971</v>
       </c>
       <c r="F124">
-        <v>0.2670941758799117</v>
+        <v>0.6223499578082325</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="B125">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.01688073975171436</v>
+        <v>-0.0338458834134419</v>
       </c>
       <c r="D125">
-        <v>-4.260468611642901</v>
+        <v>-4.274035461062336</v>
       </c>
       <c r="E125">
-        <v>4.226707132139472</v>
+        <v>4.206343694235452</v>
       </c>
       <c r="F125">
-        <v>-1.045726113443202</v>
+        <v>0.3378381591627289</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="B126">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.04368793040202446</v>
+        <v>-0.006983683319603709</v>
       </c>
       <c r="D126">
-        <v>-4.199290807029461</v>
+        <v>-4.246413125547249</v>
       </c>
       <c r="E126">
-        <v>4.28666666783351</v>
+        <v>4.232445758908042</v>
       </c>
       <c r="F126">
-        <v>0.05389383046114915</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>2699</v>
-      </c>
-      <c r="B127">
-        <v>2698</v>
-      </c>
-      <c r="C127">
-        <v>-0.01029689431919992</v>
-      </c>
-      <c r="D127">
-        <v>-4.252489256979884</v>
-      </c>
-      <c r="E127">
-        <v>4.231895468341484</v>
-      </c>
-      <c r="F127">
-        <v>-2.426840301101407</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B128">
-        <v>2699</v>
-      </c>
-      <c r="C128">
-        <v>0.0960503322577827</v>
-      </c>
-      <c r="D128">
-        <v>-4.146335719861724</v>
-      </c>
-      <c r="E128">
-        <v>4.33843638437729</v>
-      </c>
-      <c r="F128">
-        <v>1.994874186649653</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>2701</v>
-      </c>
-      <c r="B129">
-        <v>2700</v>
-      </c>
-      <c r="C129">
-        <v>-0.09631962870330252</v>
-      </c>
-      <c r="D129">
-        <v>-4.338524362676355</v>
-      </c>
-      <c r="E129">
-        <v>4.145885105269751</v>
-      </c>
-      <c r="F129">
-        <v>-2.077712794175746</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>2702</v>
-      </c>
-      <c r="B130">
-        <v>2701</v>
-      </c>
-      <c r="C130">
-        <v>0.1005968082566041</v>
-      </c>
-      <c r="D130">
-        <v>-4.141480231197523</v>
-      </c>
-      <c r="E130">
-        <v>4.342673847710731</v>
-      </c>
-      <c r="F130">
-        <v>-2.943450057505181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>2703</v>
-      </c>
-      <c r="B131">
-        <v>2702</v>
-      </c>
-      <c r="C131">
-        <v>0.09601885553974798</v>
-      </c>
-      <c r="D131">
-        <v>-4.146825257340544</v>
-      </c>
-      <c r="E131">
-        <v>4.338862968420041</v>
-      </c>
-      <c r="F131">
-        <v>0.8498634721462395</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2704</v>
-      </c>
-      <c r="B132">
-        <v>2703</v>
-      </c>
-      <c r="C132">
-        <v>-0.0512061556554182</v>
-      </c>
-      <c r="D132">
-        <v>-4.293360524729203</v>
-      </c>
-      <c r="E132">
-        <v>4.190948213418367</v>
-      </c>
-      <c r="F132">
-        <v>0.6467054733672484</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>2705</v>
-      </c>
-      <c r="B133">
-        <v>2704</v>
-      </c>
-      <c r="C133">
-        <v>-0.01576577104191154</v>
-      </c>
-      <c r="D133">
-        <v>-4.257217230146056</v>
-      </c>
-      <c r="E133">
-        <v>4.225685688062233</v>
-      </c>
-      <c r="F133">
-        <v>-1.240850664382975</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>2706</v>
-      </c>
-      <c r="B134">
-        <v>2705</v>
-      </c>
-      <c r="C134">
-        <v>0.05140611888837721</v>
-      </c>
-      <c r="D134">
-        <v>-4.189512580102955</v>
-      </c>
-      <c r="E134">
-        <v>4.29232481787971</v>
-      </c>
-      <c r="F134">
-        <v>0.6223499578082325</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>2707</v>
-      </c>
-      <c r="B135">
-        <v>2706</v>
-      </c>
-      <c r="C135">
-        <v>-0.0338458834134419</v>
-      </c>
-      <c r="D135">
-        <v>-4.274035461062336</v>
-      </c>
-      <c r="E135">
-        <v>4.206343694235452</v>
-      </c>
-      <c r="F135">
-        <v>0.3378381591627289</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>2708</v>
-      </c>
-      <c r="B136">
-        <v>2707</v>
-      </c>
-      <c r="C136">
-        <v>-0.006983683319603709</v>
-      </c>
-      <c r="D136">
-        <v>-4.246413125547249</v>
-      </c>
-      <c r="E136">
-        <v>4.232445758908042</v>
-      </c>
-      <c r="F136">
         <v>-1.187460942071183</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/fast_retailing.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.07882785746192522</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-4.368412384219863</v>
+        <v>-4.29305170696523</v>
       </c>
       <c r="E2">
-        <v>4.210756669296013</v>
+        <v>4.29305170696523</v>
       </c>
       <c r="F2">
         <v>-1.434589497026728</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.07154947042620258</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.217523337374781</v>
+        <v>-4.29257733357828</v>
       </c>
       <c r="E3">
-        <v>4.360622278227187</v>
+        <v>4.29257733357828</v>
       </c>
       <c r="F3">
         <v>0.9226659757088029</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.05007366095479257</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-4.338442228423963</v>
+        <v>-4.291894357861383</v>
       </c>
       <c r="E4">
-        <v>4.238294906514378</v>
+        <v>4.291894357861383</v>
       </c>
       <c r="F4">
         <v>0.5119235213179252</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.01068017574972406</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.298274248741298</v>
+        <v>-4.291109807439038</v>
       </c>
       <c r="E5">
-        <v>4.27691389724185</v>
+        <v>4.291109807439038</v>
       </c>
       <c r="F5">
         <v>-0.8365991312048848</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.03505341068679599</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-4.251830068623438</v>
+        <v>-4.290401490640408</v>
       </c>
       <c r="E6">
-        <v>4.321936889997031</v>
+        <v>4.290401490640408</v>
       </c>
       <c r="F6">
         <v>-2.413721129867241</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>0.08813498545005022</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-4.198958359648293</v>
+        <v>-4.290580429873421</v>
       </c>
       <c r="E7">
-        <v>4.375228330548394</v>
+        <v>4.290580429873421</v>
       </c>
       <c r="F7">
         <v>-0.6405814969875578</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.008366278707843539</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-4.277990913750599</v>
+        <v>-4.289822700626426</v>
       </c>
       <c r="E8">
-        <v>4.294723471166285</v>
+        <v>4.289822700626426</v>
       </c>
       <c r="F8">
         <v>-0.1118255637917898</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.002785139272854335</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-4.282746985468965</v>
+        <v>-4.288996631838425</v>
       </c>
       <c r="E9">
-        <v>4.288317264014673</v>
+        <v>4.288996631838425</v>
       </c>
       <c r="F9">
         <v>1.609357709309478</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>-0.06358173239707426</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-4.348733315743322</v>
+        <v>-4.288616619338163</v>
       </c>
       <c r="E10">
-        <v>4.221569850949173</v>
+        <v>4.288616619338163</v>
       </c>
       <c r="F10">
         <v>-0.4966897628337463</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.03160551430947847</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-4.252751824860016</v>
+        <v>-4.28783189663289</v>
       </c>
       <c r="E11">
-        <v>4.315962853478973</v>
+        <v>4.28783189663289</v>
       </c>
       <c r="F11">
         <v>1.564461714751708</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.06749209980729759</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-4.351429452272552</v>
+        <v>-4.287427904327999</v>
       </c>
       <c r="E12">
-        <v>4.216445252657958</v>
+        <v>4.287427904327999</v>
       </c>
       <c r="F12">
         <v>0.4618945856293522</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>-0.005197345166944825</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-4.288357337884404</v>
+        <v>-4.286638266051372</v>
       </c>
       <c r="E13">
-        <v>4.277962647550515</v>
+        <v>4.286638266051372</v>
       </c>
       <c r="F13">
         <v>-0.7072934817861309</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>0.02873144061992008</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-4.253688423992687</v>
+        <v>-4.285898643177701</v>
       </c>
       <c r="E14">
-        <v>4.311151305232526</v>
+        <v>4.285898643177701</v>
       </c>
       <c r="F14">
         <v>-2.571688800512995</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>0.09493617540930271</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-4.187827169204349</v>
+        <v>-4.286214903860841</v>
       </c>
       <c r="E15">
-        <v>4.377699520022954</v>
+        <v>4.286214903860841</v>
       </c>
       <c r="F15">
         <v>-2.467160440768268</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.07699603242693515</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-4.206075855371631</v>
+        <v>-4.286440016417969</v>
       </c>
       <c r="E16">
-        <v>4.360067920225501</v>
+        <v>4.286440016417969</v>
       </c>
       <c r="F16">
         <v>-0.7782140442055052</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>0.01496778016758948</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-4.267405911992005</v>
+        <v>-4.285719464533365</v>
       </c>
       <c r="E17">
-        <v>4.297341472327184</v>
+        <v>4.285719464533365</v>
       </c>
       <c r="F17">
         <v>0.2600781700056842</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.01290829107892055</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-4.294468430554096</v>
+        <v>-4.284906557838484</v>
       </c>
       <c r="E18">
-        <v>4.268651848396255</v>
+        <v>4.284906557838484</v>
       </c>
       <c r="F18">
         <v>-0.05773672215809711</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.004730567359824236</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-4.276006462559732</v>
+        <v>-4.284083032949487</v>
       </c>
       <c r="E19">
-        <v>4.285467597279381</v>
+        <v>4.284083032949487</v>
       </c>
       <c r="F19">
         <v>0.6619681677543454</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.02635703166524328</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-4.306345607110757</v>
+        <v>-4.283334958983503</v>
       </c>
       <c r="E20">
-        <v>4.253631543780269</v>
+        <v>4.283334958983503</v>
       </c>
       <c r="F20">
         <v>1.678321288626172</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>-0.05921898301041661</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-4.338886311476867</v>
+        <v>-4.282997308900213</v>
       </c>
       <c r="E21">
-        <v>4.220448345456034</v>
+        <v>4.282997308900213</v>
       </c>
       <c r="F21">
         <v>-2.109542310444112</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.09293764038713737</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-4.186632313280909</v>
+        <v>-4.282941324243049</v>
       </c>
       <c r="E22">
-        <v>4.372507594055183</v>
+        <v>4.282941324243049</v>
       </c>
       <c r="F22">
         <v>-1.304933697772093</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.03225303772242077</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-4.246831880321432</v>
+        <v>-4.282412189792779</v>
       </c>
       <c r="E23">
-        <v>4.311337955766273</v>
+        <v>4.282412189792779</v>
       </c>
       <c r="F23">
         <v>1.391326791698511</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.05979411190395811</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-4.338375943133901</v>
+        <v>-4.281923508654515</v>
       </c>
       <c r="E24">
-        <v>4.218787719325984</v>
+        <v>4.281923508654515</v>
       </c>
       <c r="F24">
         <v>-1.683639189258912</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.07647113965895813</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-4.201743957076057</v>
+        <v>-4.28158988523368</v>
       </c>
       <c r="E25">
-        <v>4.354686236393973</v>
+        <v>4.28158988523368</v>
       </c>
       <c r="F25">
         <v>-0.882099221538013</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.01954850202410471</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-4.258004259161618</v>
+        <v>-4.280902555266607</v>
       </c>
       <c r="E26">
-        <v>4.297101263209827</v>
+        <v>4.280902555266607</v>
       </c>
       <c r="F26">
         <v>2.248598170934102</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>-0.09056321312535454</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-4.368151356296451</v>
+        <v>-4.280951716967976</v>
       </c>
       <c r="E27">
-        <v>4.187024930045743</v>
+        <v>4.280951716967976</v>
       </c>
       <c r="F27">
         <v>-1.278715476312087</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.06657989504261472</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-4.210431280177964</v>
+        <v>-4.28041246314564</v>
       </c>
       <c r="E28">
-        <v>4.343591070263194</v>
+        <v>4.28041246314564</v>
       </c>
       <c r="F28">
         <v>0.1461347622331743</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.01804890925016561</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-4.294241738945526</v>
+        <v>-4.279596054566112</v>
       </c>
       <c r="E29">
-        <v>4.258143920445195</v>
+        <v>4.279596054566112</v>
       </c>
       <c r="F29">
         <v>1.937876984340292</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.07194996223052474</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-4.347982078622498</v>
+        <v>-4.279422061637407</v>
       </c>
       <c r="E30">
-        <v>4.204082154161449</v>
+        <v>4.279422061637407</v>
       </c>
       <c r="F30">
         <v>-0.1146460429385598</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>0.01763148222557741</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-4.257582333707646</v>
+        <v>-4.278605057334672</v>
       </c>
       <c r="E31">
-        <v>4.292845298158801</v>
+        <v>4.278605057334672</v>
       </c>
       <c r="F31">
         <v>1.959454995814447</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>-0.07945650373065882</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-4.354500463105139</v>
+        <v>-4.27844598557717</v>
       </c>
       <c r="E32">
-        <v>4.195587455643822</v>
+        <v>4.27844598557717</v>
       </c>
       <c r="F32">
         <v>1.035119047972444</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>-0.02543831906005301</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-4.299878005114754</v>
+        <v>-4.277811589663628</v>
       </c>
       <c r="E33">
-        <v>4.249001366994647</v>
+        <v>4.277811589663628</v>
       </c>
       <c r="F33">
         <v>-3.974408972352705</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>0.159477249863255</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-4.116824267135689</v>
+        <v>-4.279705509391241</v>
       </c>
       <c r="E34">
-        <v>4.4357787668622</v>
+        <v>4.279705509391241</v>
       </c>
       <c r="F34">
         <v>-1.135879403560658</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.01542425939379535</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-4.260347654355737</v>
+        <v>-4.279108839142734</v>
       </c>
       <c r="E35">
-        <v>4.291196173143328</v>
+        <v>4.279108839142734</v>
       </c>
       <c r="F35">
         <v>-0.3227228853479147</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.009673267251379701</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-4.26530123721709</v>
+        <v>-4.278309068685148</v>
       </c>
       <c r="E36">
-        <v>4.284647771719849</v>
+        <v>4.278309068685148</v>
       </c>
       <c r="F36">
         <v>-0.707758778661649</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.02551114618140149</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-4.248735181623736</v>
+        <v>-4.277577814762882</v>
       </c>
       <c r="E37">
-        <v>4.299757473986539</v>
+        <v>4.277577814762882</v>
       </c>
       <c r="F37">
         <v>0.4723953278507054</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>-0.0228048044363053</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-4.296269321042847</v>
+        <v>-4.276799361906943</v>
       </c>
       <c r="E38">
-        <v>4.250659712170237</v>
+        <v>4.276799361906943</v>
       </c>
       <c r="F38">
         <v>-0.2063984220852078</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.01206822134238757</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-4.260586451117883</v>
+        <v>-4.275990404868574</v>
       </c>
       <c r="E39">
-        <v>4.284722893802657</v>
+        <v>4.275990404868574</v>
       </c>
       <c r="F39">
         <v>1.813445425346139</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.07214685054751518</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-4.344542971388992</v>
+        <v>-4.275738301359629</v>
       </c>
       <c r="E40">
-        <v>4.200249270293962</v>
+        <v>4.275738301359629</v>
       </c>
       <c r="F40">
         <v>-2.673092041311342</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>0.1174273633896393</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-4.155313614895429</v>
+        <v>-4.276147162514062</v>
       </c>
       <c r="E41">
-        <v>4.390168341674708</v>
+        <v>4.276147162514062</v>
       </c>
       <c r="F41">
         <v>1.682696529616834</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>-0.08772193265816192</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-4.360067993745517</v>
+        <v>-4.275816914027698</v>
       </c>
       <c r="E42">
-        <v>4.184624128429194</v>
+        <v>4.275816914027698</v>
       </c>
       <c r="F42">
         <v>-1.891309330648738</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>0.09131456928223192</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-4.180774259049557</v>
+        <v>-4.275614542259921</v>
       </c>
       <c r="E43">
-        <v>4.363403397614021</v>
+        <v>4.275614542259921</v>
       </c>
       <c r="F43">
         <v>-1.502883712189984</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.04250997088664077</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-4.229200308796452</v>
+        <v>-4.27518666752125</v>
       </c>
       <c r="E44">
-        <v>4.314220250569734</v>
+        <v>4.27518666752125</v>
       </c>
       <c r="F44">
         <v>-1.157490839607611</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>0.03755211357674515</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-4.23359120555618</v>
+        <v>-4.274601844246567</v>
       </c>
       <c r="E45">
-        <v>4.30869543270967</v>
+        <v>4.274601844246567</v>
       </c>
       <c r="F45">
         <v>1.308799689779505</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>-0.05838752614488327</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-4.328994519420419</v>
+        <v>-4.274081226021418</v>
       </c>
       <c r="E46">
-        <v>4.212219467130653</v>
+        <v>4.274081226021418</v>
       </c>
       <c r="F46">
         <v>-0.2422041753211701</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.02033039233970257</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-4.249469780835094</v>
+        <v>-4.273278000950125</v>
       </c>
       <c r="E47">
-        <v>4.290130565514499</v>
+        <v>4.273278000950125</v>
       </c>
       <c r="F47">
         <v>0.7850281861372821</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.03466480097690317</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-4.30375287952979</v>
+        <v>-4.272570589213618</v>
       </c>
       <c r="E48">
-        <v>4.234423277575984</v>
+        <v>4.272570589213618</v>
       </c>
       <c r="F48">
         <v>1.017363652233882</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.03358190297807939</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-4.302047675938268</v>
+        <v>-4.271935191345181</v>
       </c>
       <c r="E49">
-        <v>4.234883869982109</v>
+        <v>4.271935191345181</v>
       </c>
       <c r="F49">
         <v>-3.083678433605996</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>0.1279568672424193</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-4.141288769940012</v>
+        <v>-4.272748347904114</v>
       </c>
       <c r="E50">
-        <v>4.39720250442485</v>
+        <v>4.272748347904114</v>
       </c>
       <c r="F50">
         <v>1.583950264537926</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>-0.08674229018766494</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-4.355538915220105</v>
+        <v>-4.272365159326328</v>
       </c>
       <c r="E51">
-        <v>4.182054334844775</v>
+        <v>4.272365159326328</v>
       </c>
       <c r="F51">
         <v>0.4221960432982286</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.001050534282219281</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-4.269080740972268</v>
+        <v>-4.271584212936366</v>
       </c>
       <c r="E52">
-        <v>4.266979672407829</v>
+        <v>4.271584212936366</v>
       </c>
       <c r="F52">
         <v>-0.6339643874520462</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.02543435175693132</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-4.241854078705245</v>
+        <v>-4.270841906538055</v>
       </c>
       <c r="E53">
-        <v>4.292722782219107</v>
+        <v>4.270841906538055</v>
       </c>
       <c r="F53">
         <v>1.383480712929241</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>-0.05980264415421055</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-4.32659635948287</v>
+        <v>-4.270358161511369</v>
       </c>
       <c r="E54">
-        <v>4.206991071174449</v>
+        <v>4.270358161511369</v>
       </c>
       <c r="F54">
         <v>-0.4490353301626726</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.0287120674729397</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-4.237298114841457</v>
+        <v>-4.269582489768943</v>
       </c>
       <c r="E55">
-        <v>4.294722249787337</v>
+        <v>4.269582489768943</v>
       </c>
       <c r="F55">
         <v>1.518564241837339</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>-0.06594257721664998</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-4.331522767452604</v>
+        <v>-4.269166333334743</v>
       </c>
       <c r="E56">
-        <v>4.199637613019304</v>
+        <v>4.269166333334743</v>
       </c>
       <c r="F56">
         <v>-0.02955519454044264</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.0131673571361252</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-4.251604496064611</v>
+        <v>-4.268357238410746</v>
       </c>
       <c r="E57">
-        <v>4.277939210336862</v>
+        <v>4.268357238410746</v>
       </c>
       <c r="F57">
         <v>0.8242613637937879</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>-0.03537017211369736</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-4.299446173493646</v>
+        <v>-4.267664329074715</v>
       </c>
       <c r="E58">
-        <v>4.228705829266252</v>
+        <v>4.267664329074715</v>
       </c>
       <c r="F58">
         <v>0.1171989586243427</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>0.001773179433478791</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-4.261499130587128</v>
+        <v>-4.266858324925953</v>
       </c>
       <c r="E59">
-        <v>4.265045489454086</v>
+        <v>4.266858324925953</v>
       </c>
       <c r="F59">
         <v>-1.267145288314353</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.05038768118811562</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-4.212352171187723</v>
+        <v>-4.26632417000754</v>
       </c>
       <c r="E60">
-        <v>4.313127533563954</v>
+        <v>4.26632417000754</v>
       </c>
       <c r="F60">
         <v>-0.4756251534649536</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.009837340443454107</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-4.252142894443106</v>
+        <v>-4.265555246508908</v>
       </c>
       <c r="E61">
-        <v>4.271817575330014</v>
+        <v>4.265555246508908</v>
       </c>
       <c r="F61">
         <v>1.155397240570011</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>-0.04794689682024869</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-4.309344607753189</v>
+        <v>-4.264975696551178</v>
       </c>
       <c r="E62">
-        <v>4.213450814112692</v>
+        <v>4.264975696551178</v>
       </c>
       <c r="F62">
         <v>0.4994868618773296</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>-0.01126447059175158</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-4.271907339600677</v>
+        <v>-4.264211585994867</v>
       </c>
       <c r="E63">
-        <v>4.249378398417173</v>
+        <v>4.264211585994867</v>
       </c>
       <c r="F63">
         <v>2.917174365425623</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>-0.1141012689818288</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-4.375400206046453</v>
+        <v>-4.264854695659494</v>
       </c>
       <c r="E64">
-        <v>4.147197668082796</v>
+        <v>4.264854695659494</v>
       </c>
       <c r="F64">
         <v>0.08536065392412695</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.01752754326239174</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-4.242972861393793</v>
+        <v>-4.264049953942117</v>
       </c>
       <c r="E65">
-        <v>4.278027947918576</v>
+        <v>4.264049953942117</v>
       </c>
       <c r="F65">
         <v>-1.201731200401746</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.04462568839699196</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-4.215323127386727</v>
+        <v>-4.26349023296715</v>
       </c>
       <c r="E66">
-        <v>4.30457450418071</v>
+        <v>4.26349023296715</v>
       </c>
       <c r="F66">
         <v>-0.1152073860145819</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.003525185147475147</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-4.262673902020095</v>
+        <v>-4.262687375862764</v>
       </c>
       <c r="E67">
-        <v>4.255623531725146</v>
+        <v>4.262687375862764</v>
       </c>
       <c r="F67">
         <v>-1.101141233305114</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>0.04439785961613421</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-4.214151977308349</v>
+        <v>-4.262089003790185</v>
       </c>
       <c r="E68">
-        <v>4.302947696540617</v>
+        <v>4.262089003790185</v>
       </c>
       <c r="F68">
         <v>-0.8779687652046064</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>0.02674017773485635</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-4.231150911068798</v>
+        <v>-4.261415873600595</v>
       </c>
       <c r="E69">
-        <v>4.28463126653851</v>
+        <v>4.261415873600595</v>
       </c>
       <c r="F69">
         <v>-0.05880623515537309</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.002542499054615352</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-4.25963168311643</v>
+        <v>-4.260612648451432</v>
       </c>
       <c r="E70">
-        <v>4.254546685007199</v>
+        <v>4.260612648451432</v>
       </c>
       <c r="F70">
         <v>-1.00503358535029</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.04031870035480434</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-4.216138791706847</v>
+        <v>-4.259981029550986</v>
       </c>
       <c r="E71">
-        <v>4.296776192416456</v>
+        <v>4.259981029550986</v>
       </c>
       <c r="F71">
         <v>-1.52674721307875</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.05301563410033083</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-4.203057331533082</v>
+        <v>-4.259574309832513</v>
       </c>
       <c r="E72">
-        <v>4.309088599733744</v>
+        <v>4.259574309832513</v>
       </c>
       <c r="F72">
         <v>-1.887997614661252</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>0.06453684471462257</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-4.191374811787227</v>
+        <v>-4.259377467999193</v>
       </c>
       <c r="E73">
-        <v>4.320448501216472</v>
+        <v>4.259377467999193</v>
       </c>
       <c r="F73">
         <v>0.1842752364211719</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.01913747221777169</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-4.274250002285773</v>
+        <v>-4.258581018623874</v>
       </c>
       <c r="E74">
-        <v>4.23597505785023</v>
+        <v>4.258581018623874</v>
       </c>
       <c r="F74">
         <v>-0.3688906734716113</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.01806700148804806</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-4.236265196041214</v>
+        <v>-4.257802365913178</v>
       </c>
       <c r="E75">
-        <v>4.27239919901731</v>
+        <v>4.257802365913178</v>
       </c>
       <c r="F75">
         <v>-1.52058787089473</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.05645349587796566</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-4.197480395816586</v>
+        <v>-4.257393683822296</v>
       </c>
       <c r="E76">
-        <v>4.310387387572518</v>
+        <v>4.257393683822296</v>
       </c>
       <c r="F76">
         <v>-1.957751192360035</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>0.06612178481389314</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-4.187700953128335</v>
+        <v>-4.257243393517752</v>
       </c>
       <c r="E77">
-        <v>4.319944522756121</v>
+        <v>4.257243393517752</v>
       </c>
       <c r="F77">
         <v>1.235952985649291</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.06069761790143677</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-4.313952782712941</v>
+        <v>-4.25670202695034</v>
       </c>
       <c r="E78">
-        <v>4.192557546910067</v>
+        <v>4.25670202695034</v>
       </c>
       <c r="F78">
         <v>-0.6319136351477184</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>0.03602752909824317</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-4.216483448646196</v>
+        <v>-4.255969571586497</v>
       </c>
       <c r="E79">
-        <v>4.288538506842682</v>
+        <v>4.255969571586497</v>
       </c>
       <c r="F79">
         <v>3.518968100457975</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>-0.1458494584837433</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-4.399619921429732</v>
+        <v>-4.257269921673411</v>
       </c>
       <c r="E80">
-        <v>4.107921004462245</v>
+        <v>4.257269921673411</v>
       </c>
       <c r="F80">
         <v>1.999460733084568</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>-0.05094997871619994</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-4.30470145568979</v>
+        <v>-4.257147875070239</v>
       </c>
       <c r="E81">
-        <v>4.20280149825739</v>
+        <v>4.257147875070239</v>
       </c>
       <c r="F81">
         <v>1.222253999589107</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>-0.0378131505873171</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-4.291040540668894</v>
+        <v>-4.256601639166683</v>
       </c>
       <c r="E82">
-        <v>4.215414239494261</v>
+        <v>4.256601639166683</v>
       </c>
       <c r="F82">
         <v>5.589012018352868</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.2071042065227879</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-4.46489765724521</v>
+        <v>-4.26109156951155</v>
       </c>
       <c r="E83">
-        <v>4.050689244199633</v>
+        <v>4.26109156951155</v>
       </c>
       <c r="F83">
         <v>-1.923680253549342</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>0.1152944678320436</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-4.142197857758211</v>
+        <v>-4.260918047520939</v>
       </c>
       <c r="E84">
-        <v>4.372786793422298</v>
+        <v>4.260918047520939</v>
       </c>
       <c r="F84">
         <v>0.8249228972676548</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>-0.05469436519703075</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-4.311473180791533</v>
+        <v>-4.260233936296101</v>
       </c>
       <c r="E85">
-        <v>4.202084450397472</v>
+        <v>4.260233936296101</v>
       </c>
       <c r="F85">
         <v>0.02832460010431248</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.009429390782824461</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-4.246552476424225</v>
+        <v>-4.259435303042205</v>
       </c>
       <c r="E86">
-        <v>4.265411257989874</v>
+        <v>4.259435303042205</v>
       </c>
       <c r="F86">
         <v>-2.727311282423983</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>0.1050457027582505</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-4.151405473683616</v>
+        <v>-4.259894260361187</v>
       </c>
       <c r="E87">
-        <v>4.361496879200117</v>
+        <v>4.259894260361187</v>
       </c>
       <c r="F87">
         <v>-1.524956237803288</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>0.03939169451975644</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-4.216711054731698</v>
+        <v>-4.259489079782789</v>
       </c>
       <c r="E88">
-        <v>4.295494443771211</v>
+        <v>4.259489079782789</v>
       </c>
       <c r="F88">
         <v>-1.578588253243396</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>0.05355450643166582</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-4.202193498312653</v>
+        <v>-4.259112279028618</v>
       </c>
       <c r="E89">
-        <v>4.309302511175984</v>
+        <v>4.259112279028618</v>
       </c>
       <c r="F89">
         <v>1.726233341337213</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.07735205404127904</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-4.332776114888499</v>
+        <v>-4.258818120129706</v>
       </c>
       <c r="E90">
-        <v>4.17807200680594</v>
+        <v>4.258818120129706</v>
       </c>
       <c r="F90">
         <v>0.3534613400145048</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.001142227608750421</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-4.253516827087616</v>
+        <v>-4.258042203163853</v>
       </c>
       <c r="E91">
-        <v>4.255801282305117</v>
+        <v>4.258042203163853</v>
       </c>
       <c r="F91">
         <v>-2.591358702068725</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>0.1003977820025135</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-4.154600530070842</v>
+        <v>-4.258378955295512</v>
       </c>
       <c r="E92">
-        <v>4.355396094075869</v>
+        <v>4.258378955295512</v>
       </c>
       <c r="F92">
         <v>0.6616565492128856</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.04470928293728454</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-4.298965051389656</v>
+        <v>-4.257656486158226</v>
       </c>
       <c r="E93">
-        <v>4.209546485515087</v>
+        <v>4.257656486158226</v>
       </c>
       <c r="F93">
         <v>-1.388491971922079</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>0.06282574597632062</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-4.190939448598243</v>
+        <v>-4.257185779555744</v>
       </c>
       <c r="E94">
-        <v>4.316590940550885</v>
+        <v>4.257185779555744</v>
       </c>
       <c r="F94">
         <v>0.3640780720656878</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>-0.02616546888247162</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-4.279151101375145</v>
+        <v>-4.25641262027399</v>
       </c>
       <c r="E95">
-        <v>4.226820163610203</v>
+        <v>4.25641262027399</v>
       </c>
       <c r="F95">
         <v>2.364317822781281</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>-0.08722538485943987</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-4.340380732016382</v>
+        <v>-4.256559948254284</v>
       </c>
       <c r="E96">
-        <v>4.165929962297503</v>
+        <v>4.256559948254284</v>
       </c>
       <c r="F96">
         <v>1.088406096764949</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.02579310051132244</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-4.27838729714797</v>
+        <v>-4.255964794973814</v>
       </c>
       <c r="E97">
-        <v>4.226801096125326</v>
+        <v>4.255964794973814</v>
       </c>
       <c r="F97">
         <v>1.567521210470524</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>-0.05573102178875944</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-4.307959414580942</v>
+        <v>-4.25558439912639</v>
       </c>
       <c r="E98">
-        <v>4.196497371003424</v>
+        <v>4.25558439912639</v>
       </c>
       <c r="F98">
         <v>-0.9259325412797281</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.04651118453574257</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-4.205051444498584</v>
+        <v>-4.254934790464938</v>
       </c>
       <c r="E99">
-        <v>4.29807381357007</v>
+        <v>4.254934790464938</v>
       </c>
       <c r="F99">
         <v>1.213536996069031</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.05606267553936525</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-4.307061794883058</v>
+        <v>-4.254389190076004</v>
       </c>
       <c r="E100">
-        <v>4.194936443804327</v>
+        <v>4.254389190076004</v>
       </c>
       <c r="F100">
         <v>2.831446229252244</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>-0.09868784349743587</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-4.350298944832758</v>
+        <v>-4.254945609185786</v>
       </c>
       <c r="E101">
-        <v>4.152923257837887</v>
+        <v>4.254945609185786</v>
       </c>
       <c r="F101">
         <v>-0.6722714394877372</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.04472518604649695</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-4.206148913707402</v>
+        <v>-4.254228645840341</v>
       </c>
       <c r="E102">
-        <v>4.295599285800396</v>
+        <v>4.254228645840341</v>
       </c>
       <c r="F102">
         <v>-0.2532715579283362</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.001373641272252778</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-4.248723453579011</v>
+        <v>-4.25344684824181</v>
       </c>
       <c r="E103">
-        <v>4.251470736123517</v>
+        <v>4.25344684824181</v>
       </c>
       <c r="F103">
         <v>0.3937012959339015</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.01548925744706119</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-4.264820745610661</v>
+        <v>-4.252680772860855</v>
       </c>
       <c r="E104">
-        <v>4.233842230716538</v>
+        <v>4.252680772860855</v>
       </c>
       <c r="F104">
         <v>3.502357142873791</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>-0.1321521004109774</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-4.382774947140227</v>
+        <v>-4.253951635898342</v>
       </c>
       <c r="E105">
-        <v>4.118470746318273</v>
+        <v>4.253951635898342</v>
       </c>
       <c r="F105">
         <v>-0.1355932411136962</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.03019369807414739</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-4.219638116583391</v>
+        <v>-4.25316307224614</v>
       </c>
       <c r="E106">
-        <v>4.280025512731686</v>
+        <v>4.25316307224614</v>
       </c>
       <c r="F106">
         <v>-0.4078863574820346</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.01006916838034998</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-4.239004344443908</v>
+        <v>-4.252399817203288</v>
       </c>
       <c r="E107">
-        <v>4.259142681204608</v>
+        <v>4.252399817203288</v>
       </c>
       <c r="F107">
         <v>0.3264420744407914</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.014479892820324</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-4.262780080936091</v>
+        <v>-4.251626944818399</v>
       </c>
       <c r="E108">
-        <v>4.233820295295443</v>
+        <v>4.251626944818399</v>
       </c>
       <c r="F108">
         <v>-0.735998960914408</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>0.03111342323956992</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-4.216484560666763</v>
+        <v>-4.250927598547363</v>
       </c>
       <c r="E109">
-        <v>4.278711407145903</v>
+        <v>4.250927598547363</v>
       </c>
       <c r="F109">
         <v>1.250696020227693</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.05419193384597834</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-4.301250595436994</v>
+        <v>-4.250400380808606</v>
       </c>
       <c r="E110">
-        <v>4.192866727745036</v>
+        <v>4.250400380808606</v>
       </c>
       <c r="F110">
         <v>0.02701607472861411</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.009130305949605238</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-4.237140561158714</v>
+        <v>-4.24961097973382</v>
       </c>
       <c r="E111">
-        <v>4.255401173057924</v>
+        <v>4.24961097973382</v>
       </c>
       <c r="F111">
         <v>0.05401026326268266</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.003802161375162354</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-4.249284902325222</v>
+        <v>-4.248822385594246</v>
       </c>
       <c r="E112">
-        <v>4.241680579574897</v>
+        <v>4.248822385594246</v>
       </c>
       <c r="F112">
         <v>1.553741409490605</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.0593149142961355</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-4.30441710778771</v>
+        <v>-4.248438907410723</v>
       </c>
       <c r="E113">
-        <v>4.18578727919544</v>
+        <v>4.248438907410723</v>
       </c>
       <c r="F113">
         <v>-0.6132534883862562</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.03486361984837857</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-4.209502435519268</v>
+        <v>-4.247713729895099</v>
       </c>
       <c r="E114">
-        <v>4.279229675216025</v>
+        <v>4.247713729895099</v>
       </c>
       <c r="F114">
         <v>0.2670941758799117</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.01688073975171436</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-4.260468611642901</v>
+        <v>-4.246937843935179</v>
       </c>
       <c r="E115">
-        <v>4.226707132139472</v>
+        <v>4.246937843935179</v>
       </c>
       <c r="F115">
         <v>-1.045726113443202</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.04368793040202446</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-4.199290807029461</v>
+        <v>-4.246333840084431</v>
       </c>
       <c r="E116">
-        <v>4.28666666783351</v>
+        <v>4.246333840084431</v>
       </c>
       <c r="F116">
         <v>0.05389383046114915</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.01029689431919992</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-4.252489256979884</v>
+        <v>-4.245547313176614</v>
       </c>
       <c r="E117">
-        <v>4.231895468341484</v>
+        <v>4.245547313176614</v>
       </c>
       <c r="F117">
         <v>-2.426840301101407</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.0960503322577827</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-4.146335719861724</v>
+        <v>-4.245748056558463</v>
       </c>
       <c r="E118">
-        <v>4.33843638437729</v>
+        <v>4.245748056558463</v>
       </c>
       <c r="F118">
         <v>1.994874186649653</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.09631962870330252</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-4.338524362676355</v>
+        <v>-4.245628604614001</v>
       </c>
       <c r="E119">
-        <v>4.145885105269751</v>
+        <v>4.245628604614001</v>
       </c>
       <c r="F119">
         <v>-2.077712794175746</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>0.1005968082566041</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-4.141480231197523</v>
+        <v>-4.245565748118223</v>
       </c>
       <c r="E120">
-        <v>4.342673847710731</v>
+        <v>4.245565748118223</v>
       </c>
       <c r="F120">
         <v>-2.943450057505181</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>0.09601885553974798</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-4.146825257340544</v>
+        <v>-4.246230751964661</v>
       </c>
       <c r="E121">
-        <v>4.338862968420041</v>
+        <v>4.246230751964661</v>
       </c>
       <c r="F121">
         <v>0.8498634721462395</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.0512061556554182</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-4.293360524729203</v>
+        <v>-4.245566107087154</v>
       </c>
       <c r="E122">
-        <v>4.190948213418367</v>
+        <v>4.245566107087154</v>
       </c>
       <c r="F122">
         <v>0.6467054733672484</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.01576577104191154</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-4.257217230146056</v>
+        <v>-4.244850970567003</v>
       </c>
       <c r="E123">
-        <v>4.225685688062233</v>
+        <v>4.244850970567003</v>
       </c>
       <c r="F123">
         <v>-1.240850664382975</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>0.05140611888837721</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-4.189512580102955</v>
+        <v>-4.244323875086642</v>
       </c>
       <c r="E124">
-        <v>4.29232481787971</v>
+        <v>4.244323875086642</v>
       </c>
       <c r="F124">
         <v>0.6223499578082325</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.0338458834134419</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-4.274035461062336</v>
+        <v>-4.243604347111877</v>
       </c>
       <c r="E125">
-        <v>4.206343694235452</v>
+        <v>4.243604347111877</v>
       </c>
       <c r="F125">
         <v>0.3378381591627289</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>-0.006983683319603709</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-4.246413125547249</v>
+        <v>-4.242839541971339</v>
       </c>
       <c r="E126">
-        <v>4.232445758908042</v>
+        <v>4.242839541971339</v>
       </c>
       <c r="F126">
         <v>-1.187460942071183</v>
